--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -44,25 +44,49 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>SELGON 10MG 6 INFANT SUPP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Monday, 8 September, 2025 9:32 AM</t>
+    <t>Monday, 8 September, 2025 10:26 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +748,104 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>12</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
         <v>24</v>
       </c>
-      <c r="Q8" s="13"/>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>84.045000000000002</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>25</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>26</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>27</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +859,20 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>TELFAST 180MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -86,7 +95,16 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 10:26 AM</t>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>Monday, 8 September, 2025 10:28 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -793,7 +811,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -814,38 +832,104 @@
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>84.045000000000002</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>25</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
         <v>26</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
         <v>27</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>29</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>295.04500000000002</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>31</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>32</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>33</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -869,10 +953,20 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -44,24 +44,60 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ENRICH SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>OXITROPIL 1200 MG 60 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>19.6800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>SELGON 10MG 6 INFANT SUPP.</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -74,9 +110,6 @@
     <t>45.0450</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>TELFAST 180MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -95,6 +128,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>URIPAN X.R. 10 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -104,7 +146,7 @@
     <t>51.0000</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 10:28 AM</t>
+    <t>Monday, 8 September, 2025 10:49 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -778,7 +820,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -788,14 +830,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -804,7 +846,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -821,14 +863,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -844,7 +886,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -854,11 +896,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -870,14 +912,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -887,49 +929,181 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>24</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>34</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>295.04500000000002</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>31</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
-        <v>32</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
-        <v>33</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>26</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>37</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>39</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>21</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>40</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>42</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>26</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>43</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>449.435</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>45</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>46</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>47</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -963,10 +1137,30 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>COLOVERIN A 30 TABLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
     <t>3:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -62,6 +77,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>DAFLON 1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
     <t>ENRICH SYRUP 100 ML</t>
   </si>
   <si>
@@ -71,21 +95,39 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX TRIO 5/40/12.5MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>OXITROPIL 1200 MG 60 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>123.00</t>
   </si>
   <si>
     <t>19.6800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>SELGON 10MG 6 INFANT SUPP.</t>
   </si>
   <si>
@@ -98,6 +140,27 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>SIDERAL FOLIC 20 ORODISPERSIBLE STICKS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -137,16 +200,16 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>51.0000</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 10:49 AM</t>
+    <t>Monday, 8 September, 2025 11:02 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -820,7 +883,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -830,14 +893,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -846,7 +909,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -863,14 +926,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -886,7 +949,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -896,14 +959,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -912,14 +975,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -929,14 +992,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -945,14 +1008,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -985,7 +1048,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1018,7 +1081,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1028,14 +1091,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1044,14 +1107,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1061,49 +1124,280 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>449.435</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>45</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
-        <v>46</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
-        <v>47</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>48</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>51</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>52</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>54</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>16</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>55</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>57</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>40</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>58</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>61</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>63</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>12</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>61</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>64</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>40</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>34</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>975.21500000000003</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>66</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>67</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>68</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1157,10 +1451,45 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -119,6 +119,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
     <t>OXITROPIL 1200 MG 60 TAB</t>
   </si>
   <si>
@@ -140,18 +152,6 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>SIDERAL FOLIC 20 ORODISPERSIBLE STICKS</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -209,7 +209,7 @@
     <t>51.0000</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 11:02 AM</t>
+    <t>Monday, 8 September, 2025 11:06 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1048,7 +1048,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1058,14 +1058,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1074,14 +1074,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1098,7 +1098,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1246,7 +1246,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1345,7 +1345,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="23" ht="24.75" customHeight="1">
       <c r="P23" s="13">
-        <v>975.21500000000003</v>
+        <v>933.21500000000003</v>
       </c>
       <c r="Q23" s="13"/>
     </row>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -209,7 +209,7 @@
     <t>51.0000</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 11:06 AM</t>
+    <t>Monday, 8 September, 2025 11:18 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>COLOVERIN A 30 TABLETS</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>DAFLON 1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -209,7 +221,7 @@
     <t>51.0000</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 11:18 AM</t>
+    <t>Monday, 8 September, 2025 11:36 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -916,7 +928,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -926,11 +938,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -942,14 +954,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -959,11 +971,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -975,14 +987,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1032,7 +1044,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1081,7 +1093,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1091,11 +1103,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1107,14 +1119,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1147,7 +1159,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1157,14 +1169,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1173,14 +1185,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1213,7 +1225,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1223,11 +1235,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1239,14 +1251,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1256,14 +1268,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1272,14 +1284,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1289,11 +1301,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1305,14 +1317,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1322,14 +1334,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1338,14 +1350,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1355,49 +1367,82 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>933.21500000000003</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>66</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>67</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>68</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>48</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>38</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>946.21500000000003</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>70</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>71</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>72</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1486,10 +1531,15 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -143,6 +143,18 @@
     <t>138.0000</t>
   </si>
   <si>
+    <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
+  </si>
+  <si>
+    <t>35:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>OXITROPIL 1200 MG 60 TAB</t>
   </si>
   <si>
@@ -221,7 +233,7 @@
     <t>51.0000</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 11:36 AM</t>
+    <t>Monday, 8 September, 2025 11:45 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1126,7 +1138,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1136,14 +1148,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1152,14 +1164,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1176,7 +1188,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1192,7 +1204,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1202,11 +1214,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1218,14 +1230,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1242,7 +1254,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1258,7 +1270,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1268,14 +1280,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1284,14 +1296,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1301,11 +1313,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1317,14 +1329,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1334,14 +1346,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1350,7 +1362,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1367,11 +1379,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1383,14 +1395,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1400,49 +1412,82 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>72</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>52</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>38</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>946.21500000000003</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>70</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
-        <v>71</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
-        <v>72</v>
-      </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>965.21500000000003</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>74</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>75</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>76</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1536,10 +1581,15 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -233,7 +233,7 @@
     <t>51.0000</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 11:45 AM</t>
+    <t>Monday, 8 September, 2025 11:49 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -224,6 +224,15 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VERSERC 16MG 30 TAB</t>
   </si>
   <si>
@@ -233,7 +242,7 @@
     <t>51.0000</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 11:49 AM</t>
+    <t>Monday, 8 September, 2025 11:50 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1412,11 +1421,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1428,14 +1437,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1445,49 +1454,82 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>75</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>52</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>13</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>38</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>965.21500000000003</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
-        <v>74</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
-        <v>75</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
-        <v>76</v>
-      </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>983.21500000000003</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>77</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>78</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>79</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1586,10 +1628,15 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -44,24 +44,48 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>CANDALKAN 8MG 14 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>13.00</t>
   </si>
   <si>
     <t>13.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>COLOVERIN A 30 TABLETS</t>
   </si>
   <si>
@@ -101,12 +125,6 @@
     <t>ENRICH SYRUP 100 ML</t>
   </si>
   <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
     <t>ERASTAPEX TRIO 5/40/12.5MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -134,9 +152,6 @@
     <t>FERROTRON 30 CAPS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>138.00</t>
   </si>
   <si>
@@ -155,6 +170,48 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>-23.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>OXITROPIL 1200 MG 60 TAB</t>
   </si>
   <si>
@@ -167,9 +224,6 @@
     <t>SELGON 10MG 6 INFANT SUPP.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -242,7 +296,22 @@
     <t>51.0000</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 11:50 AM</t>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>مناديل مبلله كبيره</t>
+  </si>
+  <si>
+    <t>Monday, 8 September, 2025 12:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -933,7 +1002,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -942,14 +1011,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -959,11 +1028,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -975,14 +1044,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -999,7 +1068,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1008,14 +1077,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1025,11 +1094,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1041,14 +1110,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1058,14 +1127,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1074,14 +1143,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1091,14 +1160,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1107,14 +1176,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1124,14 +1193,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1140,14 +1209,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1157,14 +1226,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1173,7 +1242,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1190,14 +1259,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1206,14 +1275,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1223,11 +1292,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1239,20 +1308,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1279,7 +1348,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1289,14 +1358,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1305,14 +1374,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1322,14 +1391,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1338,14 +1407,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1355,14 +1424,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1371,14 +1440,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1388,14 +1457,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1404,14 +1473,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1421,14 +1490,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1437,14 +1506,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1454,14 +1523,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1470,14 +1539,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1487,49 +1556,313 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>80</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>29</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>13</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>81</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>983.21500000000003</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
-        <v>77</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
-        <v>78</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
-        <v>79</v>
-      </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>83</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>12</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>84</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>86</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>26</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>13</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>87</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>89</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>26</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>13</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>90</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>92</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>26</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>13</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>87</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>93</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>12</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>13</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>44</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>95</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>96</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>55</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>97</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>99</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>18</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>55</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>97</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1221.2149999999999</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>100</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>101</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>102</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1633,10 +1966,50 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -296,6 +296,24 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8300:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>مناديل FINE</t>
   </si>
   <si>
@@ -311,7 +329,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 12:07 PM</t>
+    <t>Monday, 8 September, 2025 12:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1783,7 +1801,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1794,7 +1812,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1820,7 +1838,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -1831,38 +1849,104 @@
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1221.2149999999999</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>100</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>101</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
         <v>102</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>55</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>103</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>105</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>18</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>55</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>103</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1229.2149999999999</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>106</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>107</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>108</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2006,10 +2090,20 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -122,6 +122,15 @@
     <t>94.0500</t>
   </si>
   <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>1158.0000</t>
+  </si>
+  <si>
     <t>ENRICH SYRUP 100 ML</t>
   </si>
   <si>
@@ -278,6 +287,18 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>VALGESTRIL 21 F.C. TABS (BIPHASIC)</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>306.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -290,6 +311,15 @@
     <t>VERSERC 16MG 30 TAB</t>
   </si>
   <si>
+    <t>VIOCYST PIUS 30 CAP</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>2100.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -329,7 +359,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 12:15 PM</t>
+    <t>Monday, 8 September, 2025 12:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1178,14 +1208,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1194,14 +1224,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1211,14 +1241,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1227,14 +1257,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1244,11 +1274,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>29</v>
@@ -1260,14 +1290,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1284,7 +1314,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1300,7 +1330,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1310,11 +1340,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1326,28 +1356,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1359,20 +1389,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1380,10 +1410,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1392,14 +1422,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1409,14 +1439,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1425,14 +1455,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1442,14 +1472,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>66</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1465,7 +1495,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1498,7 +1528,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1515,7 +1545,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1531,7 +1561,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1564,7 +1594,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1574,14 +1604,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1590,14 +1620,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1614,7 +1644,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1630,7 +1660,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1663,7 +1693,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1680,7 +1710,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1729,7 +1759,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1739,14 +1769,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1755,14 +1785,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1772,14 +1802,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1788,14 +1818,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1805,14 +1835,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1821,7 +1851,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1834,18 +1864,18 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1854,24 +1884,24 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -1894,59 +1924,158 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>109</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>18</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>58</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>110</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1229.2149999999999</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>106</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>107</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
-        <v>108</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>111</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>112</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>58</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>113</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>115</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>18</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>58</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>113</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>4793.2150000000001</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>116</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>117</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>118</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2100,10 +2229,25 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -359,7 +359,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 12:30 PM</t>
+    <t>Monday, 8 September, 2025 12:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -122,6 +122,15 @@
     <t>94.0500</t>
   </si>
   <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
   </si>
   <si>
@@ -167,6 +176,15 @@
     <t>138.0000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
     <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
   </si>
   <si>
@@ -359,7 +377,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 12:34 PM</t>
+    <t>Monday, 8 September, 2025 12:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1215,7 +1233,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1241,14 +1259,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1257,14 +1275,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1274,14 +1292,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1290,14 +1308,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1307,11 +1325,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>29</v>
@@ -1323,14 +1341,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1347,7 +1365,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1363,7 +1381,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1373,11 +1391,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1389,28 +1407,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1422,14 +1440,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1439,14 +1457,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1455,31 +1473,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1495,7 +1513,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1509,7 +1527,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>29</v>
@@ -1521,7 +1539,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1538,14 +1556,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>72</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1561,7 +1579,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1578,7 +1596,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1594,7 +1612,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1611,7 +1629,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1627,7 +1645,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1637,14 +1655,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1653,7 +1671,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1670,11 +1688,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1686,14 +1704,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1710,7 +1728,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1726,7 +1744,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1743,7 +1761,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1759,7 +1777,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1769,14 +1787,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1785,7 +1803,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1802,11 +1820,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>29</v>
@@ -1818,14 +1836,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1835,14 +1853,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1851,31 +1869,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>93</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1884,14 +1902,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1901,14 +1919,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1917,20 +1935,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1941,7 +1959,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1957,21 +1975,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1996,7 +2014,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2007,7 +2025,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2029,11 +2047,11 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2044,38 +2062,104 @@
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>4793.2150000000001</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>116</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>117</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
         <v>118</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>64</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>119</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>121</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>18</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>64</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>119</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>4916.2150000000001</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>122</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>123</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>124</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2244,10 +2328,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -131,6 +131,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
   </si>
   <si>
@@ -239,6 +248,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>OXITROPIL 1200 MG 60 TAB</t>
   </si>
   <si>
@@ -248,6 +269,9 @@
     <t>19.6800</t>
   </si>
   <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
     <t>SELGON 10MG 6 INFANT SUPP.</t>
   </si>
   <si>
@@ -377,7 +401,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 12:35 PM</t>
+    <t>Monday, 8 September, 2025 12:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1249,7 +1273,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1266,7 +1290,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1292,14 +1316,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1308,14 +1332,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1325,14 +1349,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1341,14 +1365,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1358,11 +1382,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>29</v>
@@ -1374,14 +1398,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1398,7 +1422,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1414,7 +1438,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1447,7 +1471,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1457,11 +1481,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1473,28 +1497,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1506,20 +1530,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1527,10 +1551,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1539,14 +1563,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1556,14 +1580,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>72</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1572,14 +1596,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1589,14 +1613,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>75</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1612,7 +1636,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1645,7 +1669,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1655,11 +1679,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1671,14 +1695,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1688,14 +1712,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1704,31 +1728,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1737,14 +1761,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1754,11 +1778,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1770,14 +1794,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1787,11 +1811,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1803,14 +1827,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1820,11 +1844,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>29</v>
@@ -1836,14 +1860,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1853,14 +1877,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1869,14 +1893,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1886,14 +1910,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1902,7 +1926,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1919,11 +1943,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>29</v>
@@ -1942,24 +1966,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1968,14 +1992,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1985,14 +2009,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2001,14 +2025,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2018,14 +2042,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2034,7 +2058,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2047,18 +2071,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2074,21 +2098,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2100,66 +2124,165 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>4916.2150000000001</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>123</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>18</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>67</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>124</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>122</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>123</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
-        <v>124</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>125</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>126</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>67</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>127</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>129</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>18</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>67</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>127</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>5032.2150000000001</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>130</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>131</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>132</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2338,10 +2461,25 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>CASHO SOOTHING SOAP 80 GM</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -164,6 +173,15 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>EVASTINE 10MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -380,6 +398,18 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>حنه فاتيكا بني 1 كيس</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -401,7 +431,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 12:46 PM</t>
+    <t>Monday, 8 September, 2025 1:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1108,7 +1138,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1118,11 +1148,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1134,14 +1164,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1151,14 +1181,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1167,14 +1197,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1184,14 +1214,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1200,14 +1230,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1224,7 +1254,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1257,7 +1287,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1273,7 +1303,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1306,7 +1336,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1323,7 +1353,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1349,14 +1379,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1365,14 +1395,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1382,14 +1412,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1398,14 +1428,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1415,14 +1445,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1431,14 +1461,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1448,14 +1478,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1464,14 +1494,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1488,7 +1518,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1504,7 +1534,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1514,11 +1544,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1530,28 +1560,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1563,14 +1593,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1580,14 +1610,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1596,31 +1626,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1636,7 +1666,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1650,10 +1680,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1662,14 +1692,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1679,14 +1709,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1695,14 +1725,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1712,14 +1742,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1728,28 +1758,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1761,14 +1791,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1778,14 +1808,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1794,28 +1824,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1834,7 +1864,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1844,14 +1874,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1860,14 +1890,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1877,11 +1907,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1893,14 +1923,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1917,7 +1947,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1933,7 +1963,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1950,7 +1980,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1966,7 +1996,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1976,14 +2006,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1992,14 +2022,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2009,14 +2039,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2025,14 +2055,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2042,14 +2072,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2058,31 +2088,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>107</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2091,14 +2121,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2108,14 +2138,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2124,20 +2154,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2148,7 +2178,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2164,21 +2194,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2203,7 +2233,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2214,7 +2244,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2230,59 +2260,158 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>133</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>18</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>73</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>134</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>128</v>
       </c>
-      <c t="s" r="Q43" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>5032.2150000000001</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>130</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
-        <v>131</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
-        <v>132</v>
-      </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>135</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>136</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>73</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>137</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>139</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>18</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>73</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>137</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>5149.2150000000001</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>140</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>141</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>142</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2476,10 +2605,25 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -245,6 +245,15 @@
     <t>38.00</t>
   </si>
   <si>
+    <t>NAN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>340.0000</t>
+  </si>
+  <si>
     <t>NEVILOB 2.5 MG 14 TAB.</t>
   </si>
   <si>
@@ -431,7 +440,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 1:15 PM</t>
+    <t>Monday, 8 September, 2025 1:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1699,7 +1708,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1716,7 +1725,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1725,14 +1734,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1742,14 +1751,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>84</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1765,7 +1774,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1775,14 +1784,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1791,14 +1800,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1815,7 +1824,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1831,24 +1840,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1857,28 +1866,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1897,7 +1906,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1930,7 +1939,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1940,14 +1949,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1956,14 +1965,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1980,7 +1989,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1996,7 +2005,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2029,7 +2038,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2046,7 +2055,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2062,7 +2071,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2072,14 +2081,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2088,14 +2097,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2105,14 +2114,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>118</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2138,11 +2147,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>32</v>
@@ -2154,31 +2163,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>113</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2194,24 +2203,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2220,14 +2229,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2237,14 +2246,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2253,31 +2262,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2286,14 +2295,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2307,7 +2316,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2319,14 +2328,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2340,7 +2349,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2352,14 +2361,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2369,49 +2378,82 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>5149.2150000000001</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>142</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>18</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>73</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
         <v>140</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>141</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
-        <v>142</v>
-      </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>5489.2150000000001</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>143</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>144</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>145</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2620,10 +2662,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -86,13 +86,13 @@
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>13.00</t>
   </si>
   <si>
-    <t>13.0000</t>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>COLOVERIN A 30 TABLETS</t>
@@ -122,6 +122,18 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DAFLON 1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -227,9 +239,6 @@
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -407,6 +416,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>حنه فاتيكا بني 1 كيس</t>
   </si>
   <si>
@@ -440,7 +458,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 1:16 PM</t>
+    <t>Monday, 8 September, 2025 1:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1180,7 +1198,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1190,14 +1208,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>27</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1279,7 +1297,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1289,14 +1307,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1305,7 +1323,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1322,14 +1340,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1338,14 +1356,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1355,11 +1373,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1371,14 +1389,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1388,14 +1406,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1404,7 +1422,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1421,14 +1439,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1437,14 +1455,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1454,14 +1472,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1477,7 +1495,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1487,11 +1505,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>32</v>
@@ -1503,14 +1521,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1543,7 +1561,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1553,14 +1571,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1569,14 +1587,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1586,11 +1604,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1602,14 +1620,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1648,15 +1666,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1668,20 +1686,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1689,10 +1707,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1701,14 +1719,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1718,14 +1736,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1741,7 +1759,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1758,7 +1776,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1767,14 +1785,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1784,14 +1802,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>87</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1807,7 +1825,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1817,14 +1835,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1833,14 +1851,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1857,7 +1875,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1873,24 +1891,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1899,28 +1917,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1939,7 +1957,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1972,7 +1990,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1982,14 +2000,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1998,14 +2016,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2022,7 +2040,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2038,7 +2056,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2071,7 +2089,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2088,7 +2106,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2104,7 +2122,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2114,14 +2132,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>118</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2130,14 +2148,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2147,14 +2165,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>121</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2180,11 +2198,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>32</v>
@@ -2196,31 +2214,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>116</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2236,24 +2254,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2262,14 +2280,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2279,14 +2297,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2295,31 +2313,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2328,7 +2346,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2341,15 +2359,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2374,7 +2392,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2407,53 +2425,119 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>5489.2150000000001</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>143</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>144</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
         <v>145</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>76</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>146</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>148</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>18</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>76</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>146</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>5580.2150000000001</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>149</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>150</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>151</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2667,10 +2751,20 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -296,6 +296,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>319.2000</t>
+  </si>
+  <si>
     <t>OXITROPIL 1200 MG 60 TAB</t>
   </si>
   <si>
@@ -458,7 +467,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 1:21 PM</t>
+    <t>Monday, 8 September, 2025 1:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1891,7 +1900,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1908,7 +1917,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1924,24 +1933,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1950,28 +1959,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1990,7 +1999,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2023,7 +2032,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2033,14 +2042,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2049,14 +2058,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2073,7 +2082,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2089,7 +2098,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2122,7 +2131,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2139,7 +2148,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2155,7 +2164,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2165,14 +2174,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>121</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>124</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2231,11 +2240,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>32</v>
@@ -2247,31 +2256,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>119</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2287,24 +2296,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2313,14 +2322,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2330,14 +2339,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2346,20 +2355,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2370,7 +2379,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2386,7 +2395,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2396,11 +2405,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2412,14 +2421,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2433,7 +2442,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2445,14 +2454,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2466,7 +2475,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2478,14 +2487,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2495,49 +2504,82 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>5580.2150000000001</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>151</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>18</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>76</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>149</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>150</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>151</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>5899.415</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>152</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>153</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>154</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2761,10 +2803,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -467,7 +467,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 1:28 PM</t>
+    <t>Monday, 8 September, 2025 1:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -254,6 +254,15 @@
     <t>38.00</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>NAN 1 MILK 400 GM</t>
   </si>
   <si>
@@ -452,6 +461,12 @@
     <t>4.00</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>مناديل FINE</t>
   </si>
   <si>
@@ -467,7 +482,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 1:32 PM</t>
+    <t>Monday, 8 September, 2025 2:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1768,7 +1783,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1785,7 +1800,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1801,7 +1816,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1818,7 +1833,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1827,14 +1842,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1844,14 +1859,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>90</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1867,7 +1882,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1877,14 +1892,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1893,14 +1908,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1917,7 +1932,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1933,7 +1948,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1950,7 +1965,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1966,24 +1981,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1992,28 +2007,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2032,7 +2047,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2065,7 +2080,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2075,14 +2090,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2091,14 +2106,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2115,7 +2130,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2131,7 +2146,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2164,7 +2179,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2181,7 +2196,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2197,7 +2212,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2207,14 +2222,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2223,14 +2238,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2240,14 +2255,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>127</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2273,11 +2288,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>32</v>
@@ -2289,31 +2304,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>122</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2329,24 +2344,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2355,14 +2370,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2372,14 +2387,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2388,20 +2403,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2412,7 +2427,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2428,7 +2443,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2438,11 +2453,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2454,14 +2469,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2475,7 +2490,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2487,14 +2502,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2508,7 +2523,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2520,7 +2535,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2537,49 +2552,115 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>5899.415</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>152</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
         <v>153</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>76</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
         <v>154</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>156</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>18</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>76</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>154</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>5914.2849999999999</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>157</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>158</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>159</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2808,10 +2889,20 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -467,6 +467,15 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>معجون اسنان سيجنال 120 مل عرض</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>مناديل FINE</t>
   </si>
   <si>
@@ -482,7 +491,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 2:14 PM</t>
+    <t>Monday, 8 September, 2025 2:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2575,7 +2584,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2585,11 +2594,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2601,14 +2610,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2618,49 +2627,82 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>5914.2849999999999</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>159</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>18</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>76</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
         <v>157</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>158</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>159</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>5984.2849999999999</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>160</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>161</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>162</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2899,10 +2941,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -491,7 +491,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 2:24 PM</t>
+    <t>Monday, 8 September, 2025 2:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -434,6 +434,18 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
   </si>
   <si>
@@ -467,6 +479,24 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
@@ -491,7 +521,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 2:45 PM</t>
+    <t>Monday, 8 September, 2025 2:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2452,7 +2482,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2462,11 +2492,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2478,14 +2508,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2518,7 +2548,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2528,11 +2558,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2544,7 +2574,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2561,11 +2591,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2577,14 +2607,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2594,11 +2624,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2610,14 +2640,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2627,14 +2657,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2660,49 +2690,148 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>5984.2849999999999</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>160</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>161</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>162</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>95</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>76</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>163</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>165</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>166</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>76</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>167</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>169</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>18</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>76</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>167</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>6043.2849999999999</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>170</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>171</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>172</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2946,10 +3075,25 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -143,6 +143,15 @@
     <t>94.0500</t>
   </si>
   <si>
+    <t>DANDIVERA HAIR SHAMPOO 180ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
@@ -521,7 +530,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 2:46 PM</t>
+    <t>Monday, 8 September, 2025 2:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1426,7 +1435,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1459,7 +1468,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1492,7 +1501,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1509,7 +1518,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1535,14 +1544,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1551,14 +1560,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1568,14 +1577,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1584,14 +1593,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1624,7 +1633,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1634,11 +1643,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>32</v>
@@ -1650,14 +1659,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1674,7 +1683,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1690,7 +1699,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1723,7 +1732,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1733,11 +1742,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1749,28 +1758,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1782,20 +1791,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1803,10 +1812,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1815,14 +1824,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1832,11 +1841,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>32</v>
@@ -1855,7 +1864,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1872,7 +1881,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1888,7 +1897,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1905,7 +1914,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1914,14 +1923,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1931,14 +1940,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1954,7 +1963,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1964,14 +1973,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1980,14 +1989,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2004,7 +2013,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2020,7 +2029,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2037,7 +2046,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2053,24 +2062,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2079,28 +2088,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2119,7 +2128,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2152,7 +2161,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2162,14 +2171,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2178,14 +2187,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2202,7 +2211,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2218,7 +2227,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2251,7 +2260,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2268,7 +2277,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2284,7 +2293,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2294,14 +2303,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>127</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2310,14 +2319,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2327,14 +2336,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>130</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2360,11 +2369,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>32</v>
@@ -2376,31 +2385,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>125</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2416,24 +2425,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2442,14 +2451,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2459,14 +2468,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2475,31 +2484,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2508,20 +2517,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2548,21 +2557,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2574,20 +2583,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2595,7 +2604,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2607,7 +2616,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2620,15 +2629,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2640,31 +2649,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2680,24 +2689,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2713,13 +2722,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2746,21 +2755,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2772,66 +2781,99 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>6043.2849999999999</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>172</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>18</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>79</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
         <v>170</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
         <v>171</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
-        <v>172</v>
-      </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>6143.2849999999999</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>173</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>174</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>175</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3090,10 +3132,15 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -443,6 +443,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>بادي سبلاش ايفا</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -476,6 +485,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>زيت الو ايفا85ملل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زيت كازانوفا بالجرجير </t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -497,6 +518,15 @@
     <t>12.00</t>
   </si>
   <si>
+    <t>صابونه دوف SOAP</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -506,6 +536,15 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>كريم شعر نيو هير صغير</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
@@ -530,7 +569,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 2:59 PM</t>
+    <t>Monday, 8 September, 2025 3:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2524,7 +2563,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2534,11 +2573,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2550,14 +2589,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2590,7 +2629,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2600,11 +2639,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2616,14 +2655,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2637,7 +2676,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2649,14 +2688,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2666,11 +2705,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2689,7 +2728,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2699,14 +2738,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2736,7 +2775,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2748,14 +2787,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2765,11 +2804,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2781,14 +2820,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2798,14 +2837,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2814,14 +2853,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2842,38 +2881,203 @@
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>6143.2849999999999</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>172</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>18</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>79</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
         <v>173</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>174</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>175</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>176</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>79</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>177</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>178</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>98</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>79</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>179</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>181</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>182</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>79</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>183</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>185</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>18</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>79</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>183</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>6618.2849999999999</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>186</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>187</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>188</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3137,10 +3341,35 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -449,7 +449,7 @@
     <t>180.00</t>
   </si>
   <si>
-    <t>180.0000</t>
+    <t>360.0000</t>
   </si>
   <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
@@ -509,6 +509,15 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>سويت افوفا</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>شاش 15 سم</t>
   </si>
   <si>
@@ -518,33 +527,42 @@
     <t>12.00</t>
   </si>
   <si>
+    <t>صابون ديتول العنايه بالبشره</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
     <t>صابونه دوف SOAP</t>
   </si>
   <si>
     <t>40.00</t>
   </si>
   <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>كريم شعر نيو هير صغير</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>40.0000</t>
   </si>
   <si>
-    <t>قطن 50جم</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>كريم شعر نيو هير صغير</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
@@ -560,16 +578,10 @@
     <t>28:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 3:55 PM</t>
+    <t>Monday, 8 September, 2025 3:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2563,7 +2575,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2580,7 +2592,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2827,7 +2839,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2837,14 +2849,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2860,7 +2872,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2870,14 +2882,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2893,7 +2905,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2903,11 +2915,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2919,14 +2931,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2936,11 +2948,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>27</v>
@@ -2952,14 +2964,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2969,11 +2981,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2985,14 +2997,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3002,14 +3014,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3018,14 +3030,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3035,49 +3047,115 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>6618.2849999999999</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>186</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>187</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
         <v>188</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>79</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>167</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>189</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>18</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>79</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>167</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>6913.2849999999999</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>190</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>191</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>192</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3366,10 +3444,20 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -512,6 +512,9 @@
     <t>سويت افوفا</t>
   </si>
   <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -530,7 +533,7 @@
     <t>صابون ديتول العنايه بالبشره</t>
   </si>
   <si>
-    <t>16:0</t>
+    <t>17:0</t>
   </si>
   <si>
     <t>صابونه دوف SOAP</t>
@@ -581,7 +584,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 3:56 PM</t>
+    <t>Monday, 8 September, 2025 4:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2575,7 +2578,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2839,7 +2842,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2849,11 +2852,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2865,14 +2868,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2882,7 +2885,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -2898,14 +2901,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2931,14 +2934,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2948,11 +2951,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>27</v>
@@ -2964,7 +2967,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2981,11 +2984,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2997,14 +3000,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3014,11 +3017,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>27</v>
@@ -3030,7 +3033,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3047,11 +3050,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3063,14 +3066,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3080,11 +3083,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3096,7 +3099,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3113,11 +3116,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3131,7 +3134,7 @@
     </row>
     <row r="66" ht="16.5" customHeight="1">
       <c t="s" r="A66" s="14">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -3139,13 +3142,13 @@
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
       <c t="s" r="G66" s="15">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
       <c r="J66" s="16"/>
       <c t="s" r="K66" s="17">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L66" s="17"/>
       <c r="M66" s="17"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -161,6 +161,18 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -332,6 +344,18 @@
     <t>19.6800</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -407,9 +431,6 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -428,7 +449,7 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>51.0000</t>
+    <t>67.8300</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -509,6 +530,15 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سويت افوفا</t>
   </si>
   <si>
@@ -584,7 +614,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 4:52 PM</t>
+    <t>Monday, 8 September, 2025 5:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1555,7 +1585,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1565,14 +1595,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1581,14 +1611,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1598,14 +1628,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1614,7 +1644,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1631,14 +1661,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1647,14 +1677,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1664,14 +1694,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1687,7 +1717,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1697,11 +1727,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>32</v>
@@ -1713,14 +1743,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1753,7 +1783,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1763,14 +1793,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1779,14 +1809,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1796,11 +1826,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1812,14 +1842,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1852,13 +1882,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1885,24 +1915,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1911,14 +1941,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1928,11 +1958,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>32</v>
@@ -1944,14 +1974,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1961,14 +1991,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1977,14 +2007,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1994,14 +2024,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2017,7 +2047,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2034,7 +2064,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>32</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2043,14 +2073,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2067,7 +2097,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2083,7 +2113,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2093,14 +2123,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2109,14 +2139,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2126,14 +2156,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2142,31 +2172,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2175,14 +2205,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2192,14 +2222,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2208,28 +2238,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2241,14 +2271,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2258,14 +2288,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2274,7 +2304,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2291,11 +2321,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2307,14 +2337,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2324,14 +2354,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2340,14 +2370,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2357,14 +2387,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2373,14 +2403,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2390,14 +2420,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2406,7 +2436,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2423,11 +2453,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>32</v>
@@ -2439,14 +2469,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2456,14 +2486,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2472,31 +2502,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2505,14 +2535,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2522,14 +2552,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2538,31 +2568,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2571,31 +2601,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2617,7 +2647,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2628,7 +2658,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2644,13 +2674,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2661,7 +2691,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2683,7 +2713,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2710,21 +2740,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2736,28 +2766,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2769,28 +2799,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2802,28 +2832,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2835,28 +2865,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2868,31 +2898,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2908,21 +2938,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2934,31 +2964,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2967,31 +2997,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3000,31 +3030,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3040,13 +3070,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3057,7 +3087,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3073,21 +3103,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3099,66 +3129,165 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>6913.2849999999999</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>191</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>192</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
-        <v>193</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>195</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>102</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>83</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>196</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>198</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>199</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>83</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>178</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>200</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>18</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>83</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>178</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>6967.9949999999999</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>201</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>202</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>203</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3457,10 +3586,25 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -173,6 +173,12 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -191,6 +197,15 @@
     <t>1158.0000</t>
   </si>
   <si>
+    <t>EGY TOTAVIT SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>ENRICH SYRUP 100 ML</t>
   </si>
   <si>
@@ -587,9 +602,6 @@
     <t>كريم شعر نيو هير صغير</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -614,7 +626,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 5:11 PM</t>
+    <t>Monday, 8 September, 2025 5:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1618,7 +1630,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1628,11 +1640,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1644,14 +1656,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1661,14 +1673,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1677,7 +1689,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1694,14 +1706,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1710,14 +1722,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1734,7 +1746,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1750,7 +1762,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1760,14 +1772,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1776,14 +1788,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1793,11 +1805,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>32</v>
@@ -1809,14 +1821,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1826,14 +1838,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1842,14 +1854,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1859,14 +1871,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1875,14 +1887,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1892,11 +1904,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1908,28 +1920,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1941,14 +1953,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1958,14 +1970,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1974,20 +1986,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1998,7 +2010,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2014,7 +2026,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2028,10 +2040,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2040,14 +2052,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2057,14 +2069,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2073,14 +2085,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2090,14 +2102,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2106,14 +2118,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2123,14 +2135,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2139,14 +2151,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2156,14 +2168,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2172,14 +2184,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2189,14 +2201,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2205,14 +2217,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2222,14 +2234,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2238,31 +2250,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2278,7 +2290,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2288,14 +2300,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2304,28 +2316,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2337,14 +2349,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2354,14 +2366,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2370,7 +2382,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2387,11 +2399,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2403,14 +2415,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2420,14 +2432,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2436,14 +2448,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2453,14 +2465,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2469,14 +2481,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2486,14 +2498,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2502,7 +2514,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2519,11 +2531,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>32</v>
@@ -2535,14 +2547,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2552,14 +2564,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2568,31 +2580,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2601,14 +2613,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2618,14 +2630,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2641,24 +2653,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2667,31 +2679,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2700,31 +2712,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2733,31 +2745,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2766,28 +2778,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2799,28 +2811,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2839,21 +2851,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2865,28 +2877,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2905,21 +2917,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2931,7 +2943,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2944,15 +2956,15 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2971,21 +2983,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2997,31 +3009,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3030,28 +3042,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3070,21 +3082,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>27</v>
@@ -3103,21 +3115,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3129,28 +3141,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>27</v>
@@ -3162,28 +3174,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3195,31 +3207,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>199</v>
+        <v>55</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3228,66 +3240,132 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>6967.9949999999999</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>201</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>202</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
         <v>203</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>88</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>183</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>204</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>18</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>88</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>183</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>7087.9949999999999</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>205</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>206</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>207</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3601,10 +3679,20 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -626,7 +626,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 5:14 PM</t>
+    <t>Monday, 8 September, 2025 5:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -113,13 +113,13 @@
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>3:2</t>
+    <t>3:1</t>
   </si>
   <si>
     <t>72.00</t>
   </si>
   <si>
-    <t>72.0000</t>
+    <t>95.7600</t>
   </si>
   <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
@@ -179,6 +179,15 @@
     <t>4:0</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -362,9 +371,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -518,9 +524,6 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>زيت الو ايفا85ملل</t>
   </si>
   <si>
@@ -611,9 +614,6 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>70.00</t>
-  </si>
-  <si>
     <t>70.0000</t>
   </si>
   <si>
@@ -626,7 +626,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 5:15 PM</t>
+    <t>Monday, 8 September, 2025 5:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1449,7 +1449,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1663,7 +1663,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1680,7 +1680,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1696,7 +1696,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1713,7 +1713,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1729,7 +1729,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1746,7 +1746,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1762,7 +1762,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1772,11 +1772,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1788,14 +1788,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1805,14 +1805,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1821,14 +1821,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1861,7 +1861,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1871,11 +1871,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>32</v>
@@ -1887,14 +1887,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1911,7 +1911,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1927,7 +1927,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1960,7 +1960,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1970,11 +1970,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1986,28 +1986,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2019,20 +2019,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2040,10 +2040,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2052,14 +2052,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2069,11 +2069,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>32</v>
@@ -2092,7 +2092,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2109,7 +2109,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2125,7 +2125,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2142,7 +2142,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2151,14 +2151,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2168,14 +2168,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>105</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2191,7 +2191,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2201,14 +2201,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2217,14 +2217,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2241,7 +2241,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2257,7 +2257,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2274,7 +2274,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2290,7 +2290,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2300,11 +2300,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>32</v>
@@ -2316,31 +2316,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2349,28 +2349,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2382,14 +2382,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2399,11 +2399,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2415,14 +2415,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2432,14 +2432,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2448,14 +2448,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2465,14 +2465,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2481,14 +2481,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2498,11 +2498,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2514,14 +2514,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2531,14 +2531,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2547,14 +2547,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2564,14 +2564,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>143</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2580,14 +2580,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2597,14 +2597,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>145</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2630,11 +2630,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>32</v>
@@ -2646,31 +2646,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>141</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2679,31 +2679,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2719,7 +2719,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2729,14 +2729,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2745,28 +2745,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>27</v>
@@ -2778,31 +2778,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2811,28 +2811,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2844,28 +2844,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2877,28 +2877,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2917,21 +2917,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2943,28 +2943,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2989,15 +2989,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3022,15 +3022,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3042,28 +3042,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3075,31 +3075,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3108,31 +3108,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3141,31 +3141,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3174,31 +3174,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3207,31 +3207,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3240,31 +3240,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3273,28 +3273,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3306,66 +3306,99 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>204</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>18</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>91</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
         <v>184</v>
       </c>
-      <c t="s" r="Q69" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>7087.9949999999999</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>7146.7550000000001</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
         <v>205</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
         <v>206</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
         <v>207</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3689,10 +3722,15 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CANDALKAN 8MG 14 TAB</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
     <t>13.00</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>2:0</t>
   </si>
   <si>
@@ -107,15 +119,9 @@
     <t>32.6700</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -302,6 +308,9 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
+    <t>4:2</t>
+  </si>
+  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -359,6 +368,21 @@
     <t>319.2000</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>4:5</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>OXITROPIL 1200 MG 60 TAB</t>
   </si>
   <si>
@@ -389,6 +413,9 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -587,9 +614,6 @@
     <t>صابونه دوف SOAP</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>80.0000</t>
   </si>
   <si>
@@ -626,7 +650,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 5:23 PM</t>
+    <t>Monday, 8 September, 2025 6:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1317,7 +1341,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1326,14 +1350,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1343,11 +1367,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1359,14 +1383,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1376,14 +1400,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1392,14 +1416,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1413,10 +1437,10 @@
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>31</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1425,14 +1449,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1442,14 +1466,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1458,14 +1482,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1475,14 +1499,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1491,14 +1515,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1508,14 +1532,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1524,14 +1548,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1541,14 +1565,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1557,14 +1581,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1574,11 +1598,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1590,14 +1614,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1607,14 +1631,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1623,14 +1647,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1640,14 +1664,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1663,7 +1687,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1673,14 +1697,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1689,14 +1713,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1706,14 +1730,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1722,14 +1746,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1739,14 +1763,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1755,14 +1779,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1772,14 +1796,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1788,14 +1812,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1805,11 +1829,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1821,14 +1845,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1838,14 +1862,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1854,14 +1878,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1871,14 +1895,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1887,14 +1911,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1904,14 +1928,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1920,14 +1944,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1937,14 +1961,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1953,14 +1977,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1970,11 +1994,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1986,14 +2010,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2003,11 +2027,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2019,28 +2043,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2052,31 +2076,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2092,7 +2116,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2106,10 +2130,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2118,14 +2142,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2142,7 +2166,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2158,7 +2182,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2175,7 +2199,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2184,14 +2208,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2201,14 +2225,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>108</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2224,7 +2248,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2234,14 +2258,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2250,14 +2274,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2274,7 +2298,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2290,7 +2314,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2307,7 +2331,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2323,7 +2347,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2333,14 +2357,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2349,31 +2373,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2382,14 +2406,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2399,14 +2423,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2415,28 +2439,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2448,14 +2472,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2465,14 +2489,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2481,14 +2505,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2498,14 +2522,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2514,14 +2538,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2531,11 +2555,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2547,14 +2571,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2571,7 +2595,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2587,7 +2611,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2597,14 +2621,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2613,14 +2637,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2630,14 +2654,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2653,7 +2677,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2663,14 +2687,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2679,31 +2703,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2712,14 +2736,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2729,14 +2753,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2745,14 +2769,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2762,14 +2786,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2785,13 +2809,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2802,7 +2826,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2818,24 +2842,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2844,31 +2868,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2877,31 +2901,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2910,28 +2934,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2943,28 +2967,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2976,28 +3000,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3009,28 +3033,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3042,28 +3066,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3075,28 +3099,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3115,24 +3139,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3141,28 +3165,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3181,24 +3205,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3207,31 +3231,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3240,31 +3264,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>55</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3280,24 +3304,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3313,21 +3337,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3339,66 +3363,165 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>7146.7550000000001</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>205</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>206</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
-        <v>207</v>
-      </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>208</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>113</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>93</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>59</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>210</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>211</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>93</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>193</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>212</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>23</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>93</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>193</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>7211.7550000000001</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>213</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>214</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>215</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3727,10 +3850,25 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -650,7 +650,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 6:05 PM</t>
+    <t>Monday, 8 September, 2025 6:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -194,6 +194,24 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOWNOPRAZOL 20/1100MG 14 CAPSULES</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -257,6 +275,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FERROTRON 30 CAPS</t>
   </si>
   <si>
@@ -350,9 +380,6 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -398,24 +425,30 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>SELGON 10MG 6 INFANT SUPP.</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
     <t>23.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
-  </si>
-  <si>
-    <t>SELGON 10MG 6 INFANT SUPP.</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -446,12 +479,15 @@
     <t>160.0000</t>
   </si>
   <si>
+    <t>TRITACE 2.5MG 14 TAB</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -479,7 +515,7 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>36.0000</t>
   </si>
   <si>
     <t>VERSERC 16MG 30 TAB</t>
@@ -572,9 +608,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -650,7 +683,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 6:11 PM</t>
+    <t>Monday, 8 September, 2025 6:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1753,7 +1786,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1786,7 +1819,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1803,7 +1836,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1819,7 +1852,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1862,14 +1895,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1878,14 +1911,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1895,14 +1928,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1911,14 +1944,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1928,14 +1961,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1944,14 +1977,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1961,11 +1994,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1977,14 +2010,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1994,14 +2027,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2010,14 +2043,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2034,7 +2067,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2067,7 +2100,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2083,21 +2116,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2109,14 +2142,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2126,14 +2159,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2166,7 +2199,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2182,21 +2215,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2208,14 +2241,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2225,14 +2258,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>108</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2241,14 +2274,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2281,7 +2314,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2291,11 +2324,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2307,14 +2340,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2324,14 +2357,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>118</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>33</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2347,7 +2380,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2357,14 +2390,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2373,14 +2406,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2390,14 +2423,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2406,14 +2439,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2423,14 +2456,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2439,31 +2472,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2472,14 +2505,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2489,14 +2522,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2505,14 +2538,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2522,14 +2555,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2538,28 +2571,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2571,14 +2604,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2588,14 +2621,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2604,14 +2637,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2621,14 +2654,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2637,14 +2670,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2654,14 +2687,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2670,14 +2703,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2687,14 +2720,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2703,14 +2736,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2720,14 +2753,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>154</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2736,14 +2769,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2753,14 +2786,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2769,14 +2802,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2786,14 +2819,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2809,24 +2842,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2835,14 +2868,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2852,14 +2885,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2885,14 +2918,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>166</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2908,24 +2941,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2934,31 +2967,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2967,7 +3000,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2980,18 +3013,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3000,31 +3033,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>86</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3033,31 +3066,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3066,31 +3099,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3099,28 +3132,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3145,15 +3178,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3165,28 +3198,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3198,28 +3231,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3231,31 +3264,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3264,28 +3297,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3297,28 +3330,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>31</v>
@@ -3330,7 +3363,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3343,15 +3376,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3363,31 +3396,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3396,31 +3429,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>113</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3429,28 +3462,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3462,66 +3495,231 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>7211.7550000000001</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>213</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>23</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>103</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
         <v>214</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
         <v>215</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>216</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>57</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>103</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>217</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>219</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>89</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>103</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>59</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>221</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>222</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>103</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>204</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>223</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>23</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>103</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>204</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>7494.4650000000001</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>224</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>225</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>226</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3865,10 +4063,35 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -620,9 +620,6 @@
     <t>سويت افوفا</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -641,7 +638,7 @@
     <t>صابون ديتول العنايه بالبشره</t>
   </si>
   <si>
-    <t>17:0</t>
+    <t>16:0</t>
   </si>
   <si>
     <t>صابونه دوف SOAP</t>
@@ -3106,7 +3103,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3403,7 +3400,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>89</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3413,11 +3410,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3429,14 +3426,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3446,7 +3443,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3462,14 +3459,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3495,14 +3492,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3516,7 +3513,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>31</v>
@@ -3528,7 +3525,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3545,11 +3542,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3561,7 +3558,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3578,11 +3575,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>31</v>
@@ -3594,7 +3591,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3615,7 +3612,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3627,14 +3624,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3644,11 +3641,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3660,7 +3657,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3677,11 +3674,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3695,7 +3692,7 @@
     </row>
     <row r="80" ht="16.5" customHeight="1">
       <c t="s" r="A80" s="14">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -3703,13 +3700,13 @@
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c t="s" r="G80" s="15">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
       <c r="J80" s="16"/>
       <c t="s" r="K80" s="17">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L80" s="17"/>
       <c r="M80" s="17"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -440,9 +440,6 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -608,6 +605,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -680,7 +680,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 6:22 PM</t>
+    <t>Monday, 8 September, 2025 6:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2641,7 +2641,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2651,11 +2651,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2667,14 +2667,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2684,14 +2684,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2700,14 +2700,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2717,14 +2717,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2733,14 +2733,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2750,14 +2750,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2766,14 +2766,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2783,11 +2783,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2799,14 +2799,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2816,11 +2816,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2832,14 +2832,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2849,14 +2849,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2865,14 +2865,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2882,14 +2882,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2898,14 +2898,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2915,14 +2915,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2931,14 +2931,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2948,14 +2948,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2971,24 +2971,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2997,31 +2997,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>164</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3030,14 +3030,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3047,14 +3047,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3063,28 +3063,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>31</v>
@@ -3096,14 +3096,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3113,14 +3113,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3129,14 +3129,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3146,11 +3146,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3162,14 +3162,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3179,11 +3179,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3195,14 +3195,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3212,11 +3212,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3235,7 +3235,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3245,11 +3245,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3261,14 +3261,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3278,11 +3278,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3311,11 +3311,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3344,14 +3344,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3360,14 +3360,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3377,11 +3377,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3393,14 +3393,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3410,14 +3410,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3426,14 +3426,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3443,14 +3443,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3459,14 +3459,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3476,14 +3476,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3492,14 +3492,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3509,14 +3509,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3542,14 +3542,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3558,14 +3558,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3575,14 +3575,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>59</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3591,14 +3591,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3608,11 +3608,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3624,14 +3624,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3652,71 +3652,38 @@
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
-      <c r="A78" s="7">
-        <v>72</v>
-      </c>
-      <c r="B78" s="7"/>
-      <c t="s" r="C78" s="8">
-        <v>222</v>
-      </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c t="s" r="H78" s="9">
-        <v>23</v>
-      </c>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c t="s" r="L78" s="10">
-        <v>103</v>
-      </c>
-      <c r="M78" s="10"/>
-      <c t="s" r="N78" s="8">
-        <v>203</v>
-      </c>
-      <c r="O78" s="8"/>
-      <c t="s" r="P78" s="11">
-        <v>204</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>7494.4650000000001</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
+      <c r="P78" s="13">
+        <v>7479.5950000000003</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
         <v>223</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
         <v>224</v>
       </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
         <v>225</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4080,15 +4047,10 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -431,6 +431,12 @@
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
+    <t>RAMETAX 1GM I.V./I.M VIAL</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
     <t>SELGON 10MG 6 INFANT SUPP.</t>
   </si>
   <si>
@@ -440,6 +446,9 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -605,7 +614,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -614,7 +623,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>سويت افوفا</t>
@@ -2618,14 +2627,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2634,14 +2643,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2651,14 +2660,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2674,7 +2683,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2684,14 +2693,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2700,14 +2709,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2717,11 +2726,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2733,7 +2742,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2750,11 +2759,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2766,14 +2775,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2783,14 +2792,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2799,14 +2808,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2816,11 +2825,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2832,14 +2841,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2849,14 +2858,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2865,14 +2874,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2882,14 +2891,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>165</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2898,14 +2907,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2915,14 +2924,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2931,14 +2940,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2948,14 +2957,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2971,24 +2980,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>54</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2997,14 +3006,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3014,14 +3023,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3030,31 +3039,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>31</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3063,31 +3072,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>86</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3096,31 +3105,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3129,14 +3138,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3146,14 +3155,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3162,14 +3171,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3179,11 +3188,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3195,14 +3204,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3212,11 +3221,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3228,14 +3237,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3249,7 +3258,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3261,14 +3270,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3278,11 +3287,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3294,14 +3303,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3311,11 +3320,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3327,7 +3336,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3344,11 +3353,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3360,14 +3369,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3377,14 +3386,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3393,14 +3402,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3410,14 +3419,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3426,14 +3435,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3443,11 +3452,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3459,14 +3468,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3476,11 +3485,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>31</v>
@@ -3492,14 +3501,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3509,11 +3518,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3525,14 +3534,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3542,11 +3551,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>31</v>
@@ -3558,14 +3567,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3575,11 +3584,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3591,14 +3600,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>57</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3608,14 +3617,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3624,14 +3633,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3641,49 +3650,115 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>203</v>
+        <v>59</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>7479.5950000000003</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>223</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
         <v>224</v>
       </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>103</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>206</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>225</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>23</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>103</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>206</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>7637.4650000000001</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>226</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>227</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>228</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4047,10 +4122,20 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -689,7 +689,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 6:27 PM</t>
+    <t>Monday, 8 September, 2025 6:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -194,6 +194,24 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>11:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>DOWNOPRAZOL 20/1100MG 14 CAPSULES</t>
   </si>
   <si>
@@ -587,9 +605,6 @@
     <t>حنه فاتيكا بني 1 كيس</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -665,6 +680,9 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>كريم جلايسوليد</t>
+  </si>
+  <si>
     <t>كريم شعر نيو هير صغير</t>
   </si>
   <si>
@@ -689,7 +707,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 6:39 PM</t>
+    <t>Monday, 8 September, 2025 7:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1792,7 +1810,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1802,14 +1820,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1825,7 +1843,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1835,14 +1853,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1858,7 +1876,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1891,7 +1909,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1908,7 +1926,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1924,7 +1942,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1967,14 +1985,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1983,14 +2001,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2000,14 +2018,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2016,14 +2034,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2033,14 +2051,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2049,14 +2067,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2066,11 +2084,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2082,14 +2100,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2099,11 +2117,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2115,14 +2133,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2132,14 +2150,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2148,14 +2166,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2172,7 +2190,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2188,7 +2206,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2198,11 +2216,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2214,28 +2232,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2247,14 +2265,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2264,14 +2282,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2287,13 +2305,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2304,7 +2322,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2320,7 +2338,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2334,10 +2352,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2346,14 +2364,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2370,7 +2388,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2379,14 +2397,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2396,14 +2414,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2412,14 +2430,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2429,14 +2447,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>124</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2452,7 +2470,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2469,7 +2487,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2485,7 +2503,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2495,14 +2513,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2511,14 +2529,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2528,14 +2546,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2544,14 +2562,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2561,14 +2579,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>138</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>85</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2584,24 +2602,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2610,7 +2628,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2627,14 +2645,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2643,28 +2661,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2676,14 +2694,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2693,14 +2711,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2709,14 +2727,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2726,14 +2744,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2742,14 +2760,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2759,14 +2777,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2775,14 +2793,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2792,11 +2810,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2808,7 +2826,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2825,11 +2843,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2841,14 +2859,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2858,14 +2876,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2874,14 +2892,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2891,11 +2909,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2907,14 +2925,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2924,14 +2942,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2940,14 +2958,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2957,14 +2975,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2973,14 +2991,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2990,14 +3008,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3013,7 +3031,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3023,14 +3041,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3039,31 +3057,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3072,14 +3090,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3089,14 +3107,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3105,20 +3123,20 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3129,7 +3147,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3145,24 +3163,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3171,31 +3189,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3204,31 +3222,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3237,28 +3255,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3277,21 +3295,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3303,28 +3321,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3336,28 +3354,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3376,24 +3394,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3402,7 +3420,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3415,18 +3433,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3442,24 +3460,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3468,31 +3486,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3501,28 +3519,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3541,21 +3559,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>31</v>
@@ -3567,28 +3585,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3607,21 +3625,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>31</v>
@@ -3633,24 +3651,24 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3673,21 +3691,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3699,66 +3717,165 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>7637.4650000000001</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>226</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>227</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>95</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>109</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>59</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
         <v>228</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>229</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>230</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>109</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>211</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>231</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>23</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>109</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>211</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>7706.3050000000003</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>232</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>233</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>234</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4132,10 +4249,25 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CANDALKAN 8MG 14 TAB</t>
   </si>
   <si>
@@ -98,6 +110,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>CEPOREX 500MG 12 TABS.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -485,9 +506,6 @@
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>136.50</t>
   </si>
   <si>
@@ -707,7 +725,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 7:02 PM</t>
+    <t>Monday, 8 September, 2025 7:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1431,7 +1449,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1447,7 +1465,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1457,11 +1475,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1473,14 +1491,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1490,14 +1508,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1506,14 +1524,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1530,7 +1548,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1546,7 +1564,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1560,10 +1578,10 @@
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>38</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>33</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1596,7 +1614,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1612,7 +1630,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1629,7 +1647,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1645,7 +1663,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1655,11 +1673,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1671,7 +1689,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1688,14 +1706,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1704,14 +1722,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1728,7 +1746,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1744,7 +1762,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1754,11 +1772,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1770,14 +1788,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1787,11 +1805,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1803,14 +1821,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1820,14 +1838,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1836,14 +1854,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1853,11 +1871,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1869,14 +1887,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1886,14 +1904,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1902,14 +1920,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1919,14 +1937,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1935,14 +1953,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1952,11 +1970,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1968,14 +1986,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1985,14 +2003,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2001,14 +2019,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2018,11 +2036,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2034,7 +2052,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2051,14 +2069,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2067,14 +2085,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2084,14 +2102,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2100,14 +2118,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2117,14 +2135,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2173,7 +2191,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2183,11 +2201,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2199,14 +2217,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2223,7 +2241,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2239,7 +2257,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2249,14 +2267,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2265,14 +2283,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2305,21 +2323,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2331,14 +2349,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2352,10 +2370,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2364,31 +2382,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2397,14 +2415,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2414,14 +2432,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2437,7 +2455,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2447,14 +2465,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2470,7 +2488,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2487,7 +2505,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2503,7 +2521,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2520,7 +2538,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2529,14 +2547,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2546,14 +2564,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2562,14 +2580,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2586,7 +2604,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2595,14 +2613,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2612,14 +2630,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2628,14 +2646,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2652,7 +2670,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>91</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2661,31 +2679,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2694,7 +2712,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2711,14 +2729,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2727,28 +2745,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2760,14 +2778,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2777,14 +2795,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2793,14 +2811,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2810,14 +2828,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2826,14 +2844,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2843,14 +2861,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2859,14 +2877,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2876,7 +2894,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2942,14 +2960,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2958,14 +2976,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2975,11 +2993,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2991,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3008,14 +3026,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3024,14 +3042,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3041,14 +3059,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3057,14 +3075,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3074,14 +3092,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3097,7 +3115,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3107,14 +3125,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3123,31 +3141,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3156,14 +3174,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3173,14 +3191,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3189,20 +3207,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3213,7 +3231,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3229,24 +3247,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3255,31 +3273,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3288,31 +3306,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3321,20 +3339,20 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3342,7 +3360,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3354,28 +3372,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3387,28 +3405,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3420,28 +3438,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3453,31 +3471,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3486,31 +3504,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3519,31 +3537,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3559,24 +3577,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3592,21 +3610,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>102</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3618,31 +3636,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3651,28 +3669,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3684,31 +3702,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3717,31 +3735,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3750,28 +3768,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>59</v>
+        <v>204</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3783,31 +3801,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>64</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3816,66 +3834,132 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>7706.3050000000003</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>232</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>233</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
-        <v>234</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>235</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>236</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>116</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>217</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>237</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>27</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>116</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>217</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>7802.0349999999999</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>238</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>239</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>240</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4264,10 +4348,20 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -725,7 +725,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 7:04 PM</t>
+    <t>Monday, 8 September, 2025 7:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -95,9 +107,6 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -119,6 +128,18 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>CEREBROCETAM 1GM/5ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -611,6 +632,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>55:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
   </si>
   <si>
@@ -704,12 +737,15 @@
     <t>كريم شعر نيو هير صغير</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
@@ -725,7 +761,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 7:05 PM</t>
+    <t>Monday, 8 September, 2025 7:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1482,7 +1518,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1498,7 +1534,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1508,7 +1544,7 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
@@ -1531,7 +1567,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1564,7 +1600,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1578,10 +1614,10 @@
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1630,7 +1666,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1644,10 +1680,10 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>45</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>40</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1680,7 +1716,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1696,7 +1732,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1713,7 +1749,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1729,7 +1765,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1739,11 +1775,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1755,7 +1791,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1772,14 +1808,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1788,14 +1824,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1812,7 +1848,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1828,7 +1864,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1838,11 +1874,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1854,14 +1890,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1871,11 +1907,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1887,14 +1923,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1904,14 +1940,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1920,14 +1956,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1937,11 +1973,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1953,14 +1989,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1970,14 +2006,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1986,14 +2022,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2003,14 +2039,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2019,14 +2055,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2036,11 +2072,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2052,14 +2088,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2069,14 +2105,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2085,14 +2121,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2102,11 +2138,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2118,7 +2154,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2135,14 +2171,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2151,14 +2187,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2168,14 +2204,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2184,14 +2220,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2201,14 +2237,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2257,7 +2293,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2267,11 +2303,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2283,14 +2319,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2307,7 +2343,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2323,7 +2359,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2333,14 +2369,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2349,14 +2385,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2389,21 +2425,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2415,14 +2451,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2436,10 +2472,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2448,31 +2484,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2481,14 +2517,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2498,14 +2534,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2521,7 +2557,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2531,14 +2567,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2554,7 +2590,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2571,7 +2607,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2587,7 +2623,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2604,7 +2640,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2613,14 +2649,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2630,14 +2666,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2646,14 +2682,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2670,7 +2706,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2679,14 +2715,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2696,14 +2732,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2712,14 +2748,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2736,7 +2772,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>98</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2745,31 +2781,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2778,7 +2814,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2795,14 +2831,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2811,28 +2847,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2844,14 +2880,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2861,14 +2897,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2877,14 +2913,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,14 +2930,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2910,14 +2946,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2927,14 +2963,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2943,14 +2979,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2960,11 +2996,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2976,7 +3012,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2993,11 +3029,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3009,7 +3045,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3026,14 +3062,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3042,14 +3078,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,11 +3095,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3075,14 +3111,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,14 +3128,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3108,14 +3144,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3125,14 +3161,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3148,7 +3184,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,14 +3194,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3174,14 +3210,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,14 +3227,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3207,31 +3243,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3240,14 +3276,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,14 +3293,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3273,31 +3309,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>38</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,31 +3342,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3352,7 +3388,7 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3363,7 +3399,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3379,13 +3415,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3396,7 +3432,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3412,21 +3448,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3438,28 +3474,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3471,28 +3507,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3504,28 +3540,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3537,31 +3573,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3570,31 +3606,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3603,28 +3639,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3636,31 +3672,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3669,31 +3705,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3702,31 +3738,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3735,31 +3771,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3768,28 +3804,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3801,31 +3837,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3834,28 +3870,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3867,28 +3903,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3900,66 +3936,198 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>7802.0349999999999</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>238</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
-        <v>239</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
-        <v>240</v>
-      </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>243</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>244</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>123</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>110</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>245</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>109</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>123</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>73</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>247</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>248</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>123</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>228</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>249</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>31</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>123</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>228</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>7887.3149999999996</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>250</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>251</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>252</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4358,10 +4526,30 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -89,6 +89,15 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BETAPRONATE PLUS CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -200,6 +209,30 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
@@ -212,390 +245,381 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>11:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 20/1100MG 14 CAPSULES</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>1158.0000</t>
+  </si>
+  <si>
+    <t>EGY TOTAVIT SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>ENRICH SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/40/12.5MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>EVASTINE 10MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
+  </si>
+  <si>
+    <t>35:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>NAN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>340.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>-23.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>319.2000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>OXITROPIL 1200 MG 60 TAB</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>19.6800</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>RAMETAX 1GM I.V./I.M VIAL</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>SELGON 10MG 6 INFANT SUPP.</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>TELFAST 180MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>TRITACE 2.5MG 14 TAB</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>URIPAN X.R. 10 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>VALGESTRIL 21 F.C. TABS (BIPHASIC)</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>306.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>VIOCYST PIUS 30 CAP</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>2100.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>11:2</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOLPHIN 12.5MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>DOWNOPRAZOL 20/1100MG 14 CAPSULES</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>386.00</t>
-  </si>
-  <si>
-    <t>1158.0000</t>
-  </si>
-  <si>
-    <t>EGY TOTAVIT SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>ENRICH SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/40/12.5MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>EVASTINE 10MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>138.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
-  </si>
-  <si>
-    <t>35:0</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>NAN 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>340.00</t>
-  </si>
-  <si>
-    <t>340.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB 2.5 MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>-23.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>319.2000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>4:5</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>OXITROPIL 1200 MG 60 TAB</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>19.6800</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
-  </si>
-  <si>
-    <t>RAMETAX 1GM I.V./I.M VIAL</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>SELGON 10MG 6 INFANT SUPP.</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>45.0450</t>
-  </si>
-  <si>
-    <t>TELFAST 180MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>160.0000</t>
-  </si>
-  <si>
-    <t>TRITACE 2.5MG 14 TAB</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>URIPAN X.R. 10 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>VALGESTRIL 21 F.C. TABS (BIPHASIC)</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>306.0000</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>VERSERC 16MG 30 TAB</t>
-  </si>
-  <si>
-    <t>VIOCYST PIUS 30 CAP</t>
-  </si>
-  <si>
-    <t>350.00</t>
-  </si>
-  <si>
-    <t>2100.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
     <t>67.8300</t>
   </si>
   <si>
@@ -680,7 +704,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -689,9 +713,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>سويت افوفا</t>
   </si>
   <si>
@@ -761,7 +782,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 7:07 PM</t>
+    <t>Monday, 8 September, 2025 7:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1501,7 +1522,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1511,14 +1532,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1527,14 +1548,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1544,14 +1565,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1567,7 +1588,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1577,7 +1598,7 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
@@ -1600,7 +1621,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1633,7 +1654,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1643,14 +1664,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1659,14 +1680,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1680,10 +1701,10 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1699,7 +1720,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1709,14 +1730,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1725,14 +1746,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1749,7 +1770,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1765,7 +1786,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1775,14 +1796,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1791,14 +1812,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1815,7 +1836,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1831,7 +1852,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1848,7 +1869,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1864,7 +1885,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1940,14 +1961,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1956,14 +1977,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1973,14 +1994,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1989,14 +2010,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2006,14 +2027,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2022,14 +2043,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2039,14 +2060,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2055,14 +2076,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2072,14 +2093,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2088,14 +2109,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2105,14 +2126,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2121,14 +2142,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2138,14 +2159,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2154,14 +2175,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2171,14 +2192,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2187,14 +2208,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2204,11 +2225,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2220,14 +2241,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2237,11 +2258,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2253,14 +2274,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2277,7 +2298,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2293,7 +2314,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2310,7 +2331,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2326,7 +2347,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2336,14 +2357,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2352,14 +2373,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2369,11 +2390,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2385,14 +2406,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2402,14 +2423,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2418,14 +2439,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2435,14 +2456,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2451,14 +2472,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2468,14 +2489,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2484,28 +2505,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2517,14 +2538,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2534,14 +2555,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2550,14 +2571,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2567,14 +2588,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2583,28 +2604,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2616,14 +2637,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2633,14 +2654,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>138</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2649,14 +2670,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2666,11 +2687,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2682,14 +2703,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2699,11 +2720,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2715,14 +2736,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2732,14 +2753,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>47</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2748,14 +2769,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2765,14 +2786,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>152</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2781,14 +2802,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2798,14 +2819,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2814,14 +2835,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2831,14 +2852,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2847,31 +2868,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2887,7 +2908,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2897,14 +2918,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2913,14 +2934,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2930,14 +2951,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2946,31 +2967,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2979,14 +3000,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2996,14 +3017,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3012,14 +3033,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3029,11 +3050,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3045,14 +3066,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3062,11 +3083,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3078,14 +3099,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3095,14 +3116,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3111,14 +3132,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3128,11 +3149,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3144,14 +3165,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3161,14 +3182,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3184,7 +3205,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3201,7 +3222,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3217,7 +3238,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3227,14 +3248,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3243,7 +3264,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3260,11 +3281,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3276,14 +3297,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3293,11 +3314,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3316,24 +3337,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3342,14 +3363,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3359,14 +3380,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3375,14 +3396,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>50</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3392,14 +3413,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3408,31 +3429,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>45</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3441,31 +3462,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3474,31 +3495,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3507,31 +3528,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3540,28 +3561,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3573,28 +3594,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3606,28 +3627,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3639,28 +3660,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3672,31 +3693,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3705,31 +3726,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3738,28 +3759,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3778,24 +3799,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3804,31 +3825,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3837,31 +3858,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3877,24 +3898,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3910,21 +3931,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3936,31 +3957,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3969,31 +3990,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>34</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>110</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>32</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4002,28 +4023,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4035,31 +4056,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4068,66 +4089,165 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>229</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>7887.3149999999996</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>250</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
-        <v>251</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>252</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>116</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>130</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>83</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>254</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>255</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>130</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>235</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>256</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>34</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>130</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>235</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>8024.0749999999998</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>257</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>258</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>259</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4546,10 +4666,25 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -62,6 +62,27 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMEBAZOL 1GM 2 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
@@ -149,6 +170,15 @@
     <t>9.6000</t>
   </si>
   <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>118.0000</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -170,6 +200,15 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -212,9 +251,6 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>5:1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -233,6 +269,15 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>DERMATIN 1% TOP. CREAM 14 GM</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
@@ -344,7 +389,7 @@
     <t>54.00</t>
   </si>
   <si>
-    <t>27.0000</t>
+    <t>54.0000</t>
   </si>
   <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
@@ -518,15 +563,15 @@
     <t>132.0000</t>
   </si>
   <si>
+    <t>SALBOVENT 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>SELGON 10MG 6 INFANT SUPP.</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -566,15 +611,9 @@
     <t>TRITACE 2.5MG 14 TAB</t>
   </si>
   <si>
-    <t>54.0000</t>
-  </si>
-  <si>
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>URIPAN X.R. 10 MG 30 TAB.</t>
   </si>
   <si>
@@ -596,6 +635,15 @@
     <t>9:0</t>
   </si>
   <si>
+    <t>VASCON 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -782,7 +830,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 7:37 PM</t>
+    <t>Monday, 8 September, 2025 7:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1456,7 +1504,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1466,14 +1514,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1482,14 +1530,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1499,14 +1547,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1515,14 +1563,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1532,14 +1580,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>28</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1572,7 +1620,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1588,7 +1636,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1598,7 +1646,7 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
@@ -1621,7 +1669,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1631,14 +1679,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1647,14 +1695,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1664,11 +1712,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1680,14 +1728,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1704,7 +1752,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1720,7 +1768,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1734,10 +1782,10 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1770,7 +1818,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1786,7 +1834,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1803,7 +1851,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1819,7 +1867,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1829,14 +1877,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1845,14 +1893,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1869,7 +1917,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1885,7 +1933,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1918,7 +1966,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1928,14 +1976,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1944,14 +1992,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1961,14 +2009,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1977,7 +2025,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1994,14 +2042,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2010,14 +2058,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2027,14 +2075,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2043,14 +2091,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2060,14 +2108,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2083,7 +2131,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2093,14 +2141,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2109,14 +2157,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2126,14 +2174,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2142,14 +2190,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2159,14 +2207,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2175,14 +2223,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2192,14 +2240,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2208,14 +2256,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2225,11 +2273,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2248,7 +2296,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2258,14 +2306,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>28</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2274,14 +2322,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2291,14 +2339,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2307,14 +2355,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2324,14 +2372,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2340,14 +2388,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2357,11 +2405,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2373,14 +2421,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2390,14 +2438,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2406,14 +2454,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2423,14 +2471,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2439,14 +2487,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2456,14 +2504,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2472,14 +2520,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2496,7 +2544,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2512,7 +2560,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2522,11 +2570,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2538,14 +2586,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2555,14 +2603,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2571,14 +2619,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2588,11 +2636,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2604,31 +2652,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2637,14 +2685,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2654,14 +2702,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2670,14 +2718,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2687,14 +2735,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2703,14 +2751,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2720,11 +2768,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2736,14 +2784,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2753,14 +2801,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2769,31 +2817,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2802,14 +2850,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2819,14 +2867,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2835,14 +2883,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2852,14 +2900,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2868,14 +2916,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2885,14 +2933,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2901,14 +2949,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2918,14 +2966,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2934,14 +2982,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2951,14 +2999,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2967,28 +3015,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3007,7 +3055,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3017,14 +3065,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3033,14 +3081,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3050,14 +3098,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3066,14 +3114,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3083,14 +3131,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3099,14 +3147,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3116,14 +3164,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3132,28 +3180,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3165,14 +3213,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3182,14 +3230,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3198,14 +3246,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3215,11 +3263,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3231,14 +3279,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3248,11 +3296,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3264,14 +3312,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3281,14 +3329,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3304,7 +3352,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3314,14 +3362,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3330,14 +3378,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3347,14 +3395,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>194</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3363,14 +3411,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3380,14 +3428,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3396,14 +3444,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3413,14 +3461,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3429,31 +3477,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>125</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>192</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3462,14 +3510,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3479,14 +3527,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3495,14 +3543,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3512,14 +3560,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3528,31 +3576,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>48</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3561,28 +3609,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3594,28 +3642,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3627,31 +3675,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3660,31 +3708,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3693,31 +3741,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>48</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3726,31 +3774,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3759,31 +3807,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3792,31 +3840,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3825,20 +3873,20 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3846,10 +3894,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3858,28 +3906,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3891,20 +3939,20 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3912,10 +3960,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3931,21 +3979,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>58</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3957,31 +4005,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3997,13 +4045,13 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4011,7 +4059,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4023,31 +4071,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4063,24 +4111,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>48</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4096,24 +4144,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>131</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>117</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>35</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4122,31 +4170,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>116</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4155,28 +4203,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4188,66 +4236,297 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>8024.0749999999998</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>257</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>258</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
-        <v>259</v>
-      </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>260</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>41</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>145</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>261</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>263</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>58</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>145</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>239</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>264</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>96</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>145</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>233</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>266</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>267</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>145</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>132</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>268</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>131</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>145</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>98</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>270</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>271</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>145</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>251</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>272</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>41</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>145</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>251</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>8534.0750000000007</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>273</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>274</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>275</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4681,10 +4960,45 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -683,6 +683,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
@@ -830,7 +839,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 7:41 PM</t>
+    <t>Monday, 8 September, 2025 7:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3814,13 +3823,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3831,7 +3840,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3847,7 +3856,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3857,14 +3866,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3873,14 +3882,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3890,11 +3899,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3906,14 +3915,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3946,7 +3955,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3960,7 +3969,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3972,14 +3981,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3989,11 +3998,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4005,14 +4014,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4022,11 +4031,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4045,7 +4054,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4059,7 +4068,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4071,7 +4080,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4088,14 +4097,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4104,7 +4113,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4121,14 +4130,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>88</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4137,14 +4146,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4154,14 +4163,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4177,7 +4186,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>131</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4187,14 +4196,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4220,14 +4229,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4236,14 +4245,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4253,14 +4262,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>172</v>
+        <v>239</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4269,14 +4278,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4286,14 +4295,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4309,7 +4318,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4319,11 +4328,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>99</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4335,14 +4344,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4352,14 +4361,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4368,14 +4377,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>96</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4385,11 +4394,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>132</v>
+        <v>236</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>58</v>
@@ -4401,14 +4410,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>131</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4418,14 +4427,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4434,14 +4443,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>131</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4451,11 +4460,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4467,14 +4476,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4484,49 +4493,82 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>8534.0750000000007</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>273</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>274</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
         <v>275</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>41</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>145</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>254</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>8630.0750000000007</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>276</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>277</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>278</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4995,10 +5037,15 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -839,7 +839,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 7:45 PM</t>
+    <t>Monday, 8 September, 2025 7:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -839,7 +839,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 7:46 PM</t>
+    <t>Monday, 8 September, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -251,10 +251,16 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
@@ -290,10 +296,10 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>0:2</t>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>DIGENORM SYRUP 120 ML</t>
@@ -314,18 +320,15 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>11:2</t>
-  </si>
-  <si>
-    <t>15.8400</t>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>47.5200</t>
   </si>
   <si>
     <t>DOLPHIN 12.5MG 10 SUPP</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -380,9 +383,6 @@
     <t>144.00</t>
   </si>
   <si>
-    <t>47.5200</t>
-  </si>
-  <si>
     <t>EVASTINE 10MG 20 F.C.TAB.</t>
   </si>
   <si>
@@ -551,9 +551,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -839,7 +836,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 7:56 PM</t>
+    <t>Monday, 8 September, 2025 7:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2107,7 +2104,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2117,14 +2114,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2133,14 +2130,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2150,11 +2147,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>28</v>
@@ -2166,7 +2163,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2183,11 +2180,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2199,7 +2196,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2216,11 +2213,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2232,14 +2229,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2249,14 +2246,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2265,14 +2262,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2298,7 +2295,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2315,11 +2312,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>28</v>
@@ -2331,14 +2328,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2352,10 +2349,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2364,14 +2361,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2381,11 +2378,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>28</v>
@@ -2397,7 +2394,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2414,11 +2411,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2430,7 +2427,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2447,11 +2444,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2463,7 +2460,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2496,7 +2493,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2513,11 +2510,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2529,7 +2526,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2546,11 +2543,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2562,7 +2559,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2595,14 +2592,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2612,11 +2609,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>28</v>
@@ -2668,7 +2665,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3180,7 +3177,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>180</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3189,7 +3186,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3222,7 +3219,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3239,11 +3236,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3255,14 +3252,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3276,7 +3273,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3288,7 +3285,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3305,11 +3302,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3321,7 +3318,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3354,14 +3351,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3375,7 +3372,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3387,7 +3384,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3404,11 +3401,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3420,7 +3417,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3437,11 +3434,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3453,7 +3450,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3470,11 +3467,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3486,7 +3483,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3519,7 +3516,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3540,7 +3537,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3552,7 +3549,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3569,11 +3566,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>28</v>
@@ -3585,14 +3582,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3606,10 +3603,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>206</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>207</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3618,7 +3615,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3635,11 +3632,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3651,7 +3648,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3668,11 +3665,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3684,7 +3681,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3701,11 +3698,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>28</v>
@@ -3717,7 +3714,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3734,14 +3731,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3750,14 +3747,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3771,7 +3768,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>60</v>
@@ -3783,14 +3780,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3800,11 +3797,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>58</v>
@@ -3816,7 +3813,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3833,11 +3830,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3849,7 +3846,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3866,11 +3863,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>58</v>
@@ -3882,14 +3879,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3899,11 +3896,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3915,14 +3912,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3932,11 +3929,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3948,7 +3945,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3965,11 +3962,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3981,14 +3978,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3998,11 +3995,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4014,7 +4011,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4031,11 +4028,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4047,7 +4044,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4064,11 +4061,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4080,7 +4077,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4097,11 +4094,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4113,7 +4110,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4130,14 +4127,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4146,7 +4143,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4163,14 +4160,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>104</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4179,7 +4176,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4196,11 +4193,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4212,14 +4209,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4229,11 +4226,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>58</v>
@@ -4245,14 +4242,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4262,11 +4259,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4278,14 +4275,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4299,7 +4296,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>58</v>
@@ -4311,7 +4308,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4328,11 +4325,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4344,7 +4341,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4361,11 +4358,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4377,14 +4374,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4394,11 +4391,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>58</v>
@@ -4410,14 +4407,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4443,7 +4440,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4460,11 +4457,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4476,14 +4473,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4493,11 +4490,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4509,7 +4506,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4526,11 +4523,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4538,13 +4535,13 @@
     </row>
     <row r="100" ht="24.75" customHeight="1">
       <c r="P100" s="13">
-        <v>8630.0750000000007</v>
+        <v>8688.5149999999994</v>
       </c>
       <c r="Q100" s="13"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
       <c t="s" r="A101" s="14">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -4552,13 +4549,13 @@
       <c r="E101" s="14"/>
       <c r="F101" s="14"/>
       <c t="s" r="G101" s="15">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
       <c r="J101" s="16"/>
       <c t="s" r="K101" s="17">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L101" s="17"/>
       <c r="M101" s="17"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -836,7 +836,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 7:58 PM</t>
+    <t>Monday, 8 September, 2025 8:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -560,6 +560,18 @@
     <t>132.0000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>11:1</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
     <t>SALBOVENT 2MG 30 TAB.</t>
   </si>
   <si>
@@ -689,6 +701,18 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
@@ -704,12 +728,6 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -836,7 +854,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 8:20 PM</t>
+    <t>Monday, 8 September, 2025 8:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3259,7 +3277,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3269,14 +3287,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3285,14 +3303,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3302,11 +3320,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3318,14 +3336,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3335,14 +3353,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3351,14 +3369,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3368,11 +3386,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3384,14 +3402,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3401,14 +3419,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3417,14 +3435,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3434,14 +3452,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3450,14 +3468,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3467,14 +3485,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3483,14 +3501,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3500,11 +3518,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3516,14 +3534,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3533,11 +3551,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3549,14 +3567,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3566,14 +3584,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3582,14 +3600,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3599,14 +3617,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>206</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3622,7 +3640,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3632,14 +3650,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3648,14 +3666,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3665,11 +3683,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3681,14 +3699,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3698,14 +3716,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3714,31 +3732,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>204</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3747,31 +3765,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>60</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3780,14 +3798,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3797,14 +3815,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3820,7 +3838,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3830,14 +3848,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3846,31 +3864,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3879,14 +3897,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3896,11 +3914,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3912,14 +3930,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3936,7 +3954,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3952,7 +3970,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3962,11 +3980,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3978,14 +3996,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3999,7 +4017,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>101</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4011,14 +4029,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4028,11 +4046,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4044,14 +4062,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4061,11 +4079,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4077,14 +4095,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4094,11 +4112,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4110,14 +4128,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4127,14 +4145,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4143,7 +4161,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4160,14 +4178,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4176,14 +4194,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4193,14 +4211,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4209,14 +4227,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4230,10 +4248,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>58</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4249,7 +4267,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>131</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4259,11 +4277,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4275,14 +4293,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4292,11 +4310,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>58</v>
@@ -4308,14 +4326,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4325,11 +4343,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4341,14 +4359,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>58</v>
+        <v>208</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4358,14 +4376,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>241</v>
+        <v>172</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4374,14 +4392,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4391,14 +4409,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4407,14 +4425,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>58</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4424,14 +4442,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>132</v>
+        <v>247</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4440,14 +4458,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4457,14 +4475,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>100</v>
+        <v>241</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4473,14 +4491,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4490,14 +4508,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>253</v>
+        <v>132</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4506,14 +4524,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4523,49 +4541,115 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>253</v>
+        <v>100</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>8688.5149999999994</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>275</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
-        <v>276</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
-        <v>277</v>
-      </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>278</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>279</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>145</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>259</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>280</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>41</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>145</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>259</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>8720.2350000000006</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>281</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>282</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>283</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5039,10 +5123,20 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -563,13 +563,10 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>11:1</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
-    <t>6.7200</t>
+    <t>13.8600</t>
   </si>
   <si>
     <t>SALBOVENT 2MG 30 TAB.</t>
@@ -3277,7 +3274,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3287,14 +3284,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3303,7 +3300,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3324,7 +3321,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3336,7 +3333,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3369,7 +3366,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3402,7 +3399,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3423,7 +3420,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>28</v>
@@ -3435,7 +3432,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3452,11 +3449,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3468,7 +3465,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3485,11 +3482,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>28</v>
@@ -3501,7 +3498,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3518,11 +3515,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3534,7 +3531,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3567,7 +3564,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3588,7 +3585,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3600,7 +3597,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3617,11 +3614,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>28</v>
@@ -3633,14 +3630,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3654,10 +3651,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>209</v>
-      </c>
-      <c t="s" r="Q72" s="12">
-        <v>210</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3666,7 +3663,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3683,11 +3680,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3699,7 +3696,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3720,7 +3717,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3732,7 +3729,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3749,11 +3746,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>28</v>
@@ -3765,7 +3762,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3782,14 +3779,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3798,14 +3795,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3819,7 +3816,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>60</v>
@@ -3831,14 +3828,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3848,11 +3845,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>58</v>
@@ -3864,7 +3861,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3881,11 +3878,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3897,14 +3894,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3914,11 +3911,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3930,7 +3927,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3947,11 +3944,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>58</v>
@@ -3963,14 +3960,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3980,11 +3977,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3996,14 +3993,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4013,11 +4010,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4029,7 +4026,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4046,11 +4043,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4062,7 +4059,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4079,7 +4076,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4095,7 +4092,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4112,11 +4109,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4128,7 +4125,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4145,11 +4142,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4161,7 +4158,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4178,11 +4175,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4194,7 +4191,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4211,11 +4208,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>98</v>
@@ -4227,7 +4224,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4244,14 +4241,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4260,7 +4257,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4277,11 +4274,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4293,14 +4290,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4310,11 +4307,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>58</v>
@@ -4326,14 +4323,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4343,11 +4340,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4359,14 +4356,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4380,7 +4377,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>58</v>
@@ -4392,7 +4389,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4409,11 +4406,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4425,7 +4422,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4442,7 +4439,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4458,7 +4455,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4475,11 +4472,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>58</v>
@@ -4491,14 +4488,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4524,7 +4521,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4545,7 +4542,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4557,14 +4554,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4574,11 +4571,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4590,7 +4587,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4607,11 +4604,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4619,13 +4616,13 @@
     </row>
     <row r="102" ht="25.5" customHeight="1">
       <c r="P102" s="13">
-        <v>8720.2350000000006</v>
+        <v>8727.375</v>
       </c>
       <c r="Q102" s="13"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
       <c t="s" r="A103" s="14">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -4633,13 +4630,13 @@
       <c r="E103" s="14"/>
       <c r="F103" s="14"/>
       <c t="s" r="G103" s="15">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H103" s="15"/>
       <c r="I103" s="15"/>
       <c r="J103" s="16"/>
       <c t="s" r="K103" s="17">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L103" s="17"/>
       <c r="M103" s="17"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -413,6 +413,15 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FERROTRON 30 CAPS</t>
   </si>
   <si>
@@ -563,10 +572,13 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
+    <t>11:2</t>
+  </si>
+  <si>
     <t>42.00</t>
   </si>
   <si>
-    <t>13.8600</t>
+    <t>0.0000</t>
   </si>
   <si>
     <t>SALBOVENT 2MG 30 TAB.</t>
@@ -602,7 +614,7 @@
     <t>136.50</t>
   </si>
   <si>
-    <t>45.0450</t>
+    <t>90.0900</t>
   </si>
   <si>
     <t>TELFAST 180MG 20 F.C. TABS</t>
@@ -710,12 +722,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
-    <t>180.00</t>
-  </si>
-  <si>
     <t>360.0000</t>
   </si>
   <si>
@@ -851,7 +866,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 8:21 PM</t>
+    <t>Monday, 8 September, 2025 8:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2746,7 +2761,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2763,7 +2778,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2779,7 +2794,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2812,7 +2827,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2822,11 +2837,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2838,28 +2853,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2871,20 +2886,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2892,10 +2907,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2904,14 +2919,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2925,7 +2940,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>28</v>
@@ -2937,14 +2952,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2961,7 +2976,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2977,7 +2992,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2994,7 +3009,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3003,14 +3018,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3020,14 +3035,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>163</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3043,7 +3058,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3060,7 +3075,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3076,7 +3091,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3093,7 +3108,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3109,7 +3124,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3119,14 +3134,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>174</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3135,14 +3150,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3152,14 +3167,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>177</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3175,7 +3190,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3189,10 +3204,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>96</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3201,31 +3216,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3234,31 +3249,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3267,14 +3282,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3284,14 +3299,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3307,7 +3322,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3317,14 +3332,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3333,14 +3348,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3350,11 +3365,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3366,14 +3381,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3383,14 +3398,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3399,14 +3414,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3416,11 +3431,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>28</v>
@@ -3432,14 +3447,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3449,14 +3464,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3465,14 +3480,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3482,14 +3497,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3498,14 +3513,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3515,14 +3530,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3531,14 +3546,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3548,11 +3563,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3564,14 +3579,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3581,11 +3596,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3597,14 +3612,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3614,14 +3629,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3630,14 +3645,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3647,14 +3662,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>209</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3670,7 +3685,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3680,14 +3695,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3696,14 +3711,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3713,11 +3728,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3729,14 +3744,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3746,14 +3761,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3762,31 +3777,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>207</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3795,31 +3810,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>60</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3828,14 +3843,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3845,14 +3860,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>128</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3868,7 +3883,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3878,14 +3893,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3894,20 +3909,20 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3934,24 +3949,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3960,28 +3975,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>89</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3993,31 +4008,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4026,28 +4041,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4059,28 +4074,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>101</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4099,21 +4114,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4125,28 +4140,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4158,28 +4173,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4198,24 +4213,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4224,7 +4239,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4237,18 +4252,18 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>106</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>207</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4257,31 +4272,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4297,24 +4312,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>58</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4323,28 +4338,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>131</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4363,21 +4378,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>172</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>58</v>
@@ -4389,28 +4404,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4429,24 +4444,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>101</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4455,31 +4470,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4488,31 +4503,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>58</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4521,31 +4536,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4554,31 +4569,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>259</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4587,66 +4602,132 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>258</v>
+        <v>100</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>8727.375</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>280</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>281</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
         <v>282</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>283</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>148</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>263</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>284</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>41</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>148</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>263</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>8863.5599999999995</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>285</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>286</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>287</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5130,10 +5211,20 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -866,7 +866,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 8:36 PM</t>
+    <t>Monday, 8 September, 2025 8:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -149,6 +149,12 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>CEFOZON 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>CEPOREX 500MG 12 TABS.</t>
   </si>
   <si>
@@ -866,7 +872,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 8:37 PM</t>
+    <t>Monday, 8 September, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1804,7 +1810,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1814,11 +1820,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1830,14 +1836,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1847,14 +1853,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1863,14 +1869,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1880,14 +1886,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1896,14 +1902,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1913,14 +1919,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1929,14 +1935,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1946,14 +1952,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1962,14 +1968,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1979,14 +1985,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1995,14 +2001,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2012,14 +2018,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2028,14 +2034,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2045,14 +2051,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2061,14 +2067,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2078,14 +2084,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2094,14 +2100,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2111,14 +2117,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2127,14 +2133,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2144,14 +2150,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2160,14 +2166,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2177,14 +2183,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2193,14 +2199,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2210,14 +2216,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2226,14 +2232,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2243,11 +2249,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2259,14 +2265,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2276,14 +2282,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2292,14 +2298,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2309,14 +2315,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2332,7 +2338,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2342,14 +2348,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2358,14 +2364,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2375,14 +2381,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>96</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2391,14 +2397,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2408,14 +2414,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2431,7 +2437,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2441,14 +2447,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2457,14 +2463,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2474,11 +2480,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2490,14 +2496,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2507,11 +2513,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2523,14 +2529,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2540,14 +2546,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2556,14 +2562,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2573,14 +2579,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2589,14 +2595,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2606,11 +2612,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2622,14 +2628,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2639,14 +2645,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2655,14 +2661,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2676,10 +2682,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2688,14 +2694,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2705,14 +2711,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2721,14 +2727,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2738,11 +2744,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>28</v>
@@ -2754,14 +2760,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2771,11 +2777,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>28</v>
@@ -2787,14 +2793,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2804,14 +2810,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2820,14 +2826,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2837,11 +2843,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2853,14 +2859,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2870,11 +2876,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2886,28 +2892,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2919,31 +2925,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2959,7 +2965,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2969,11 +2975,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>28</v>
@@ -2985,14 +2991,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3002,14 +3008,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3018,14 +3024,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3035,14 +3041,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3051,14 +3057,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3068,14 +3074,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3084,14 +3090,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3101,14 +3107,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3117,14 +3123,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3134,14 +3140,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3150,14 +3156,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3167,14 +3173,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>177</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3183,14 +3189,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3200,14 +3206,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>28</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3216,14 +3222,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3233,14 +3239,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>96</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3256,24 +3262,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3282,31 +3288,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3322,7 +3328,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3332,14 +3338,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3348,14 +3354,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3365,14 +3371,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3388,7 +3394,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3398,11 +3404,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3414,14 +3420,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3431,14 +3437,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3447,14 +3453,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3464,11 +3470,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3487,7 +3493,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3497,14 +3503,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3513,14 +3519,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3530,14 +3536,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3546,14 +3552,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3563,14 +3569,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3579,14 +3585,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3596,11 +3602,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3612,14 +3618,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3629,11 +3635,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3645,14 +3651,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3662,14 +3668,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3678,14 +3684,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>62</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3695,14 +3701,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>213</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3711,14 +3717,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3728,14 +3734,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3744,14 +3750,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3761,7 +3767,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3784,7 +3790,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3794,14 +3800,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3810,31 +3816,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>211</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3843,31 +3849,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>60</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3876,14 +3882,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3893,14 +3899,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3909,14 +3915,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3926,14 +3932,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3942,28 +3948,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>133</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3975,28 +3981,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>89</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>90</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4015,24 +4021,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4048,24 +4054,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4087,15 +4093,15 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4107,28 +4113,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4140,28 +4146,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4180,21 +4186,21 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4206,28 +4212,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4239,28 +4245,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4285,18 +4291,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4318,18 +4324,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>106</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>211</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4345,13 +4351,13 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4359,10 +4365,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4371,31 +4377,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>191</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4404,31 +4410,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4444,24 +4450,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>211</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4477,24 +4483,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>177</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4503,28 +4509,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>101</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4536,31 +4542,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4576,24 +4582,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>279</v>
+        <v>100</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>132</v>
+        <v>247</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4609,24 +4615,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>131</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4642,21 +4648,21 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>133</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>263</v>
+        <v>102</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4675,59 +4681,92 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>41</v>
+        <v>285</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>8863.5599999999995</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>285</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>286</v>
       </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>41</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>150</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>265</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>8911.5599999999995</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
         <v>287</v>
       </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>288</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>289</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5221,10 +5260,15 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -326,69 +326,72 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>10:2</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 20/1100MG 14 CAPSULES</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>1158.0000</t>
+  </si>
+  <si>
+    <t>EGY TOTAVIT SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>ENRICH SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/40/12.5MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>144.00</t>
   </si>
   <si>
     <t>47.5200</t>
   </si>
   <si>
-    <t>DOLPHIN 12.5MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>DOWNOPRAZOL 20/1100MG 14 CAPSULES</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>386.00</t>
-  </si>
-  <si>
-    <t>1158.0000</t>
-  </si>
-  <si>
-    <t>EGY TOTAVIT SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>ENRICH SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/40/12.5MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
     <t>EVASTINE 10MG 20 F.C.TAB.</t>
   </si>
   <si>
@@ -623,6 +626,15 @@
     <t>90.0900</t>
   </si>
   <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>TELFAST 180MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -872,7 +884,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 8:58 PM</t>
+    <t>Monday, 8 September, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2421,7 +2433,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>98</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2682,7 +2694,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>28</v>
@@ -2694,7 +2706,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2711,11 +2723,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2727,7 +2739,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2744,11 +2756,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>28</v>
@@ -2760,14 +2772,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2777,11 +2789,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>28</v>
@@ -2793,7 +2805,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2810,11 +2822,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>28</v>
@@ -2826,7 +2838,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2843,11 +2855,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2859,7 +2871,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2876,11 +2888,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2892,14 +2904,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2909,11 +2921,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2925,7 +2937,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2938,15 +2950,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2958,7 +2970,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2975,11 +2987,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>28</v>
@@ -2991,14 +3003,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3008,11 +3020,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>28</v>
@@ -3024,7 +3036,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3041,11 +3053,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3057,7 +3069,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3074,14 +3086,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3090,7 +3102,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3107,11 +3119,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>28</v>
@@ -3123,14 +3135,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3140,11 +3152,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3156,7 +3168,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3173,11 +3185,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>62</v>
@@ -3189,14 +3201,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3206,14 +3218,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3222,7 +3234,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3239,11 +3251,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>28</v>
@@ -3255,7 +3267,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3272,7 +3284,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3288,7 +3300,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3301,15 +3313,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3321,7 +3333,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3342,7 +3354,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3354,14 +3366,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3371,11 +3383,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>41</v>
@@ -3387,7 +3399,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3404,11 +3416,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3420,7 +3432,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3453,7 +3465,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3470,11 +3482,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3486,7 +3498,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3503,11 +3515,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>28</v>
@@ -3519,7 +3531,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3536,11 +3548,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3552,7 +3564,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3569,11 +3581,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>85</v>
@@ -3585,14 +3597,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3602,14 +3614,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3618,14 +3630,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3635,11 +3647,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3651,14 +3663,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3668,11 +3680,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3684,14 +3696,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3701,14 +3713,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3717,14 +3729,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3734,14 +3746,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>215</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3757,7 +3769,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3767,14 +3779,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3783,14 +3795,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3800,11 +3812,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3816,14 +3828,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3833,14 +3845,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>210</v>
+        <v>83</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3849,31 +3861,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>213</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3882,31 +3894,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>62</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3915,14 +3927,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3932,14 +3944,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3955,7 +3967,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3965,14 +3977,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3981,20 +3993,20 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4027,15 +4039,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>91</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4047,31 +4059,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4080,31 +4092,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4113,28 +4125,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4153,21 +4165,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4179,28 +4191,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>103</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4212,28 +4224,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4245,28 +4257,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4278,28 +4290,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4311,7 +4323,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4324,18 +4336,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4344,7 +4356,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4357,18 +4369,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>108</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>213</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4377,31 +4389,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4410,20 +4422,20 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4431,10 +4443,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4443,31 +4455,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4476,31 +4488,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4509,31 +4521,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>178</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4542,28 +4554,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>103</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4575,31 +4587,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4608,28 +4620,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>100</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>60</v>
@@ -4641,31 +4653,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4674,28 +4686,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>265</v>
+        <v>102</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4707,66 +4719,99 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>8911.5599999999995</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>287</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>288</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
-        <v>289</v>
-      </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>290</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>41</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>151</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>269</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>8989.3999999999996</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>291</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>292</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>293</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5265,10 +5310,15 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -122,13 +122,16 @@
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
-    <t>2:1</t>
+    <t>2:0</t>
   </si>
   <si>
     <t>81.00</t>
   </si>
   <si>
-    <t>26.7300</t>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>CANDALKAN 8MG 14 TAB</t>
@@ -155,6 +158,15 @@
     <t>8:0</t>
   </si>
   <si>
+    <t>CELEBORG 200 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>CEPOREX 500MG 12 TABS.</t>
   </si>
   <si>
@@ -191,18 +203,12 @@
     <t>13.00</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>COLOVERIN A 30 TABLETS</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>99.00</t>
-  </si>
-  <si>
     <t>32.6700</t>
   </si>
   <si>
@@ -257,84 +263,81 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DERMATIN 1% TOP. CREAM 14 GM</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:2</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DERMATIN 1% TOP. CREAM 14 GM</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>10:2</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>DOLPHIN 12.5MG 10 SUPP</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -482,9 +485,6 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:2</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -569,6 +569,15 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -806,7 +815,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>10.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -851,9 +860,6 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>كريم جلايسوليد</t>
   </si>
   <si>
@@ -884,7 +890,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 9:04 PM</t>
+    <t>Monday, 8 September, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1740,7 +1746,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1749,14 +1755,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1770,7 +1776,7 @@
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1782,14 +1788,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1799,11 +1805,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1815,14 +1821,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1836,7 +1842,7 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1848,14 +1854,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1865,14 +1871,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1881,14 +1887,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1905,7 +1911,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1921,7 +1927,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1931,14 +1937,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1947,14 +1953,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1964,14 +1970,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1980,14 +1986,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2001,10 +2007,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2013,14 +2019,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2030,14 +2036,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2046,14 +2052,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2063,14 +2069,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2079,14 +2085,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2096,14 +2102,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2112,14 +2118,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2129,14 +2135,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2145,14 +2151,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2162,14 +2168,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2178,14 +2184,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2195,14 +2201,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2211,14 +2217,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2228,14 +2234,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2244,14 +2250,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2261,14 +2267,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2277,14 +2283,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2294,11 +2300,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2310,14 +2316,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2327,14 +2333,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2343,14 +2349,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2360,14 +2366,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2376,14 +2382,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2393,14 +2399,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2409,14 +2415,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2426,14 +2432,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2442,14 +2448,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2459,14 +2465,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2475,14 +2481,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2492,14 +2498,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2508,14 +2514,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2525,11 +2531,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2541,14 +2547,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2558,11 +2564,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2581,7 +2587,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2591,14 +2597,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2607,14 +2613,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2624,14 +2630,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2640,14 +2646,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2657,11 +2663,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2680,7 +2686,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2690,14 +2696,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2706,14 +2712,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2723,14 +2729,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2739,14 +2745,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2756,14 +2762,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2772,14 +2778,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2789,11 +2795,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>28</v>
@@ -2805,14 +2811,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2822,11 +2828,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>28</v>
@@ -2838,14 +2844,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2855,14 +2861,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2871,14 +2877,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2888,11 +2894,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2904,14 +2910,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2921,11 +2927,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2937,28 +2943,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2970,31 +2976,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3003,14 +3009,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3020,11 +3026,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>28</v>
@@ -3036,14 +3042,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3053,14 +3059,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3069,14 +3075,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3086,14 +3092,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3102,14 +3108,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3119,14 +3125,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>28</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3135,14 +3141,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3152,14 +3158,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3168,14 +3174,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3185,14 +3191,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3201,14 +3207,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3218,14 +3224,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>180</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3234,14 +3240,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3251,14 +3257,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3267,14 +3273,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3284,14 +3290,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3300,31 +3306,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3333,31 +3339,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3373,24 +3379,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3399,14 +3405,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3416,14 +3422,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3432,14 +3438,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3449,14 +3455,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3472,7 +3478,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3482,14 +3488,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3498,14 +3504,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3515,14 +3521,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3538,7 +3544,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3548,14 +3554,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3564,14 +3570,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3581,14 +3587,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3597,14 +3603,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3614,14 +3620,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3630,14 +3636,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3647,14 +3653,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3663,14 +3669,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3680,14 +3686,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>128</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3696,14 +3702,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3713,11 +3719,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3729,14 +3735,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3746,14 +3752,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3762,14 +3768,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3779,14 +3785,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>219</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3795,14 +3801,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3812,14 +3818,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3828,14 +3834,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3845,14 +3851,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3861,14 +3867,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3878,14 +3884,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3901,24 +3907,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>85</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>217</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3927,14 +3933,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3944,14 +3950,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3960,31 +3966,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>60</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3993,14 +3999,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4010,14 +4016,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4026,31 +4032,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4059,28 +4065,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>135</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>91</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>92</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4092,31 +4098,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>138</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4125,28 +4131,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4158,31 +4164,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>139</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4191,28 +4197,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4224,28 +4230,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>103</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4257,28 +4263,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4297,13 +4303,13 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4311,7 +4317,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4323,28 +4329,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4356,31 +4362,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4389,31 +4395,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>217</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4422,31 +4428,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4455,31 +4461,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>42</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>60</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4488,28 +4494,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>275</v>
+        <v>135</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4521,31 +4527,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>178</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4554,28 +4560,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4587,31 +4593,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>257</v>
+        <v>178</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>103</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4620,31 +4626,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4653,31 +4659,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>37</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4686,31 +4692,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>102</v>
+        <v>254</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4719,31 +4725,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>269</v>
+        <v>136</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>270</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4752,66 +4758,132 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>269</v>
+        <v>102</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>8989.3999999999996</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>290</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
         <v>291</v>
       </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>152</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>272</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>292</v>
       </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>42</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>152</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>272</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>9106.5100000000002</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
         <v>293</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>294</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>295</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5315,10 +5387,20 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -275,6 +275,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -743,12 +755,6 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>امواس لورد</t>
   </si>
   <si>
@@ -815,51 +821,54 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>سويت افوفا</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>صابون ديتول العنايه بالبشره</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>صابونه دوف SOAP</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
     <t>10.0000</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>سويت افوفا</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>صابون ديتول العنايه بالبشره</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>صابونه دوف SOAP</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>قطن 50جم</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
     <t>كريم جلايسوليد</t>
   </si>
   <si>
@@ -890,7 +899,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 9:18 PM</t>
+    <t>Monday, 8 September, 2025 9:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2274,7 +2283,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2290,7 +2299,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2300,14 +2309,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2316,14 +2325,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2333,11 +2342,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2349,14 +2358,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2366,14 +2375,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2382,14 +2391,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2399,14 +2408,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2415,14 +2424,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2432,14 +2441,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2448,14 +2457,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2465,14 +2474,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2481,14 +2490,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2498,14 +2507,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2514,14 +2523,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2531,14 +2540,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2547,14 +2556,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2564,11 +2573,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2580,14 +2589,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2597,11 +2606,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2613,14 +2622,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2630,14 +2639,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2646,14 +2655,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2663,14 +2672,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2679,14 +2688,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2696,11 +2705,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2712,14 +2721,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2729,14 +2738,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2752,7 +2761,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2762,14 +2771,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2778,14 +2787,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2795,14 +2804,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2811,14 +2820,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2851,7 +2860,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2861,11 +2870,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>28</v>
@@ -2877,14 +2886,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2894,14 +2903,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2910,14 +2919,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2927,11 +2936,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2943,14 +2952,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2983,13 +2992,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3016,24 +3025,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3042,14 +3051,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3059,11 +3068,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>28</v>
@@ -3075,14 +3084,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3092,14 +3101,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3108,14 +3117,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3125,14 +3134,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3148,7 +3157,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3165,7 +3174,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3174,14 +3183,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3191,14 +3200,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3207,14 +3216,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3224,14 +3233,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3240,14 +3249,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3264,7 +3273,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>180</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3273,14 +3282,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3297,7 +3306,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>28</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3306,14 +3315,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3323,14 +3332,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3339,31 +3348,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>28</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3372,31 +3381,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3405,31 +3414,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3438,14 +3447,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3455,14 +3464,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3478,7 +3487,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3488,14 +3497,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3504,14 +3513,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3521,11 +3530,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3537,14 +3546,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3554,14 +3563,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3570,14 +3579,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3587,11 +3596,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>28</v>
@@ -3603,14 +3612,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3620,14 +3629,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3636,14 +3645,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3653,14 +3662,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3669,7 +3678,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3686,14 +3695,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3702,14 +3711,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3719,14 +3728,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3735,14 +3744,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3752,11 +3761,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3768,14 +3777,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3785,11 +3794,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3801,14 +3810,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3818,14 +3827,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3834,14 +3843,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3851,14 +3860,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>222</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3874,7 +3883,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3884,14 +3893,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3900,14 +3909,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3917,11 +3926,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>85</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3933,14 +3942,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3950,14 +3959,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3966,31 +3975,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>220</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3999,31 +4008,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>65</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4032,14 +4041,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4049,14 +4058,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4072,7 +4081,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4082,14 +4091,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4098,20 +4107,20 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4144,15 +4153,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4171,24 +4180,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4204,24 +4213,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4243,15 +4252,15 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4263,28 +4272,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4296,28 +4305,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>103</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4336,21 +4345,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4362,28 +4371,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4395,28 +4404,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4441,18 +4450,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4474,18 +4483,18 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>109</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4501,13 +4510,13 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4515,10 +4524,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4527,31 +4536,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>139</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>197</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4560,31 +4569,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4600,24 +4609,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4633,24 +4642,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4666,21 +4675,21 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>103</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4692,31 +4701,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4725,28 +4734,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>104</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>37</v>
@@ -4758,31 +4767,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4791,28 +4800,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>291</v>
+        <v>139</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4824,66 +4833,99 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>9106.5100000000002</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>293</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>294</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>295</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>42</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>156</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>274</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>9139.5100000000002</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>296</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>297</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>298</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5397,10 +5439,15 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -347,9 +359,6 @@
     <t>DOLPHIN 12.5MG 10 SUPP</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -425,15 +434,24 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:8</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>3.8400</t>
   </si>
   <si>
@@ -584,9 +602,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>27.0000</t>
   </si>
   <si>
@@ -614,9 +629,6 @@
     <t>SALBOVENT 2MG 30 TAB.</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>SELGON 10MG 6 INFANT SUPP.</t>
   </si>
   <si>
@@ -785,6 +797,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
   </si>
   <si>
@@ -825,9 +846,6 @@
   </si>
   <si>
     <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
   </si>
   <si>
     <t>سويت افوفا</t>
@@ -1689,7 +1707,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1705,7 +1723,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1715,14 +1733,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1731,14 +1749,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1755,7 +1773,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1764,14 +1782,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1781,14 +1799,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1797,14 +1815,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1814,11 +1832,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1830,14 +1848,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1847,11 +1865,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1863,14 +1881,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1880,14 +1898,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1896,14 +1914,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1913,14 +1931,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1929,14 +1947,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1953,7 +1971,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1969,7 +1987,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1979,14 +1997,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1995,14 +2013,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2012,14 +2030,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2028,14 +2046,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2045,14 +2063,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2061,14 +2079,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2078,14 +2096,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2094,14 +2112,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2111,14 +2129,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2127,14 +2145,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2151,7 +2169,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2167,7 +2185,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2177,14 +2195,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2193,14 +2211,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2210,14 +2228,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2226,14 +2244,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2250,7 +2268,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2259,14 +2277,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2276,14 +2294,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>91</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2316,7 +2334,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2332,7 +2350,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2342,14 +2360,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2358,14 +2376,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2375,11 +2393,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2391,14 +2409,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2408,14 +2426,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2424,14 +2442,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2441,14 +2459,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2474,14 +2492,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2490,14 +2508,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2507,14 +2525,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2523,14 +2541,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2540,14 +2558,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2556,14 +2574,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2573,14 +2591,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2596,7 +2614,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2629,7 +2647,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2639,11 +2657,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2655,14 +2673,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2672,14 +2690,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2695,7 +2713,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2712,7 +2730,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2728,7 +2746,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2738,11 +2756,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2754,14 +2772,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2771,14 +2789,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2787,14 +2805,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2811,7 +2829,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2827,7 +2845,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2844,7 +2862,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2860,7 +2878,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2870,11 +2888,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>28</v>
@@ -2886,14 +2904,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2907,10 +2925,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>144</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2926,7 +2944,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2936,14 +2954,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2959,7 +2977,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2976,7 +2994,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2992,7 +3010,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3002,11 +3020,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3018,28 +3036,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3051,14 +3069,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3068,14 +3086,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3091,24 +3109,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3117,14 +3135,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3134,14 +3152,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3157,7 +3175,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3174,7 +3192,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>170</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3183,14 +3201,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3200,14 +3218,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3216,14 +3234,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3233,14 +3251,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>176</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3256,7 +3274,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3273,7 +3291,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3289,7 +3307,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3299,14 +3317,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>184</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3315,14 +3333,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3332,14 +3350,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3348,14 +3366,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3365,14 +3383,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>87</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3381,28 +3399,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>28</v>
@@ -3414,31 +3432,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3447,31 +3465,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3480,31 +3498,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3513,14 +3531,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3530,14 +3548,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3546,14 +3564,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3563,14 +3581,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3579,14 +3597,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3596,14 +3614,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3612,14 +3630,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3629,14 +3647,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3645,14 +3663,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3662,14 +3680,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3678,14 +3696,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3695,14 +3713,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3711,14 +3729,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3728,14 +3746,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3744,14 +3762,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3761,14 +3779,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3777,14 +3795,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3794,14 +3812,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3817,7 +3835,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3827,11 +3845,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3843,14 +3861,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3860,14 +3878,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3883,7 +3901,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3893,14 +3911,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>226</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3909,14 +3927,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3926,14 +3944,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3942,14 +3960,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3959,14 +3977,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3975,14 +3993,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3992,14 +4010,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4008,31 +4026,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>89</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>224</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4048,7 +4066,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>69</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4058,14 +4076,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>136</v>
+        <v>225</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4074,31 +4092,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>37</v>
+        <v>228</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4107,14 +4125,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>139</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4124,14 +4142,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>139</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4140,31 +4158,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>90</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4173,28 +4191,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>146</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>98</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4213,24 +4231,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4252,15 +4270,15 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4279,24 +4297,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>149</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4305,28 +4323,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>94</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4338,28 +4356,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>112</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4371,31 +4389,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4404,28 +4422,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4437,28 +4455,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>242</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4470,31 +4488,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>224</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4510,13 +4528,13 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4524,10 +4542,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>201</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4536,28 +4554,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4576,24 +4594,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>46</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>37</v>
+        <v>228</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4602,31 +4620,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>46</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>260</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4635,31 +4653,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>182</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4668,20 +4686,20 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4689,10 +4707,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4701,28 +4719,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>37</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4741,24 +4759,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4774,24 +4792,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>46</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>43</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4800,28 +4818,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>106</v>
+        <v>269</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4840,24 +4858,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>294</v>
+        <v>108</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4873,59 +4891,158 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>42</v>
+        <v>296</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>274</v>
+        <v>31</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>275</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>9139.5100000000002</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>296</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
         <v>297</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>146</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>162</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>110</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
         <v>298</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>299</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>300</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>162</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>280</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>301</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>46</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>162</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>280</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>9205.1499999999996</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>302</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>303</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>304</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5444,10 +5561,25 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -83,6 +83,21 @@
     <t>93.0000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:6</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
@@ -95,9 +110,6 @@
     <t>26.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -401,6 +413,18 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">ENARO  K CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
     <t>ENRICH SYRUP 100 ML</t>
   </si>
   <si>
@@ -497,9 +521,6 @@
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
@@ -551,6 +572,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -791,12 +821,6 @@
     <t>55:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -827,12 +851,6 @@
     <t xml:space="preserve">زيت كازانوفا بالجرجير </t>
   </si>
   <si>
-    <t>170.00</t>
-  </si>
-  <si>
-    <t>170.0000</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -842,7 +860,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>14.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1707,7 +1725,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1740,7 +1758,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1756,7 +1774,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1766,14 +1784,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1782,14 +1800,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1806,7 +1824,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1815,14 +1833,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1832,14 +1850,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1848,14 +1866,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1865,11 +1883,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1881,14 +1899,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1898,11 +1916,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1914,14 +1932,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1931,14 +1949,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1947,14 +1965,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1964,14 +1982,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1980,14 +1998,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2004,7 +2022,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2020,7 +2038,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2030,14 +2048,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2046,14 +2064,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2063,14 +2081,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2079,14 +2097,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2096,14 +2114,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2112,14 +2130,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2129,14 +2147,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2145,14 +2163,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2162,14 +2180,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2178,14 +2196,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2202,7 +2220,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2218,7 +2236,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2228,14 +2246,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2244,14 +2262,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2261,14 +2279,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2277,14 +2295,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2301,7 +2319,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2310,14 +2328,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2327,14 +2345,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>95</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2367,7 +2385,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2383,7 +2401,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2393,14 +2411,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2409,14 +2427,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2426,11 +2444,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2442,14 +2460,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2459,14 +2477,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2475,14 +2493,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2492,14 +2510,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2508,14 +2526,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2525,14 +2543,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2541,14 +2559,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2558,14 +2576,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2574,14 +2592,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2591,14 +2609,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2607,14 +2625,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2624,14 +2642,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2640,14 +2658,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2657,11 +2675,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2673,14 +2691,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2690,11 +2708,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2706,14 +2724,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2723,14 +2741,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2739,14 +2757,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2756,14 +2774,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2772,14 +2790,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2789,11 +2807,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2805,31 +2823,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2838,14 +2856,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2855,11 +2873,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2871,14 +2889,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2888,11 +2906,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>28</v>
@@ -2904,14 +2922,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2921,14 +2939,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2937,14 +2955,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2954,11 +2972,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>28</v>
@@ -2970,14 +2988,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2987,14 +3005,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3003,14 +3021,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3020,14 +3038,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3036,14 +3054,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3053,14 +3071,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3069,14 +3087,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3086,11 +3104,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3102,20 +3120,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3142,7 +3160,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3152,14 +3170,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3168,31 +3186,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3201,14 +3219,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3218,14 +3236,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3234,14 +3252,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3251,14 +3269,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3274,7 +3292,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3291,7 +3309,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3307,7 +3325,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3324,7 +3342,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3333,14 +3351,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3350,14 +3368,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3366,14 +3384,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3390,7 +3408,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>190</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3399,14 +3417,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3416,14 +3434,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3432,14 +3450,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3449,14 +3467,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>58</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3472,24 +3490,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3498,31 +3516,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3531,14 +3549,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3548,14 +3566,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3564,31 +3582,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3597,28 +3615,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3630,7 +3648,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3647,14 +3665,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3663,14 +3681,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3680,14 +3698,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3696,14 +3714,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3713,14 +3731,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3729,14 +3747,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3746,11 +3764,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3762,14 +3780,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3779,14 +3797,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3795,14 +3813,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3812,11 +3830,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>28</v>
@@ -3828,7 +3846,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3845,11 +3863,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3861,14 +3879,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3878,14 +3896,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>137</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3894,14 +3912,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3911,14 +3929,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3927,14 +3945,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3944,14 +3962,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3960,14 +3978,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>50</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3977,14 +3995,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>230</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3993,14 +4011,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4010,11 +4028,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4033,7 +4051,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4043,14 +4061,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4059,14 +4077,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>69</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4076,14 +4094,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>28</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4092,31 +4110,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>228</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4125,14 +4143,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4142,14 +4160,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4158,14 +4176,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4175,14 +4193,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4198,13 +4216,13 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4215,7 +4233,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4237,18 +4255,18 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>95</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4257,31 +4275,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>101</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4290,31 +4308,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4323,28 +4341,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4356,28 +4374,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>105</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4389,31 +4407,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>157</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4422,28 +4440,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>46</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>98</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4462,21 +4480,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>30</v>
+        <v>269</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>188</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4495,24 +4513,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4521,28 +4539,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4554,28 +4572,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>246</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4587,31 +4605,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>228</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4620,31 +4638,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>263</v>
+        <v>136</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4653,28 +4671,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4693,24 +4711,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>50</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>41</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4719,31 +4737,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>50</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4752,31 +4770,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>188</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4785,20 +4803,20 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>46</v>
+        <v>289</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
@@ -4806,10 +4824,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4818,28 +4836,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>41</v>
+        <v>292</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4858,24 +4876,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4891,24 +4909,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>296</v>
+        <v>50</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>31</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>47</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4917,28 +4935,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>110</v>
+        <v>277</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4957,24 +4975,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>300</v>
+        <v>112</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4990,59 +5008,158 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>46</v>
+        <v>302</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>281</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>9205.1499999999996</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>302</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>303</v>
       </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>154</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>135</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>114</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
         <v>304</v>
       </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>305</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>306</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>135</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>286</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>307</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>50</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>135</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>286</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>9409.6299999999992</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>308</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>309</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>310</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5576,10 +5693,25 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -935,7 +935,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 9:19 PM</t>
+    <t>Monday, 8 September, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -614,6 +614,12 @@
     <t>1:4</t>
   </si>
   <si>
+    <t>OST-MAP 60MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>OXITROPIL 1200 MG 60 TAB</t>
   </si>
   <si>
@@ -632,9 +638,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -851,6 +854,9 @@
     <t xml:space="preserve">زيت كازانوفا بالجرجير </t>
   </si>
   <si>
+    <t xml:space="preserve">سباركل شامبو وبلسم </t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -935,7 +941,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 9:20 PM</t>
+    <t>Monday, 8 September, 2025 9:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3523,7 +3529,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3533,11 +3539,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3549,14 +3555,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3566,14 +3572,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3589,24 +3595,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3622,7 +3628,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3632,14 +3638,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3655,24 +3661,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3681,14 +3687,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3698,14 +3704,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3714,14 +3720,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3731,14 +3737,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3754,7 +3760,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3764,11 +3770,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3787,7 +3793,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3797,14 +3803,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3820,7 +3826,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3830,11 +3836,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>28</v>
@@ -3846,14 +3852,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3863,14 +3869,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3879,14 +3885,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3896,14 +3902,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3912,7 +3918,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3929,14 +3935,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3945,14 +3951,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3962,14 +3968,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3978,14 +3984,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3995,11 +4001,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>145</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4018,7 +4024,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4028,11 +4034,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4051,7 +4057,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4061,14 +4067,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4077,14 +4083,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>73</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4094,14 +4100,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>240</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4110,14 +4116,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>50</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4127,14 +4133,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4143,14 +4149,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4160,11 +4166,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4176,14 +4182,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4193,14 +4199,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4216,24 +4222,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>238</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4242,31 +4248,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>50</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>147</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>73</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4275,14 +4281,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4292,14 +4298,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>147</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4308,14 +4314,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4325,14 +4331,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4341,28 +4347,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>261</v>
+        <v>154</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4374,14 +4380,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4391,11 +4397,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4407,14 +4413,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4424,14 +4430,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4440,14 +4446,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4457,14 +4463,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>99</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4473,14 +4479,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4490,11 +4496,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4506,14 +4512,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4523,14 +4529,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4539,7 +4545,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4556,14 +4562,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4572,14 +4578,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4589,11 +4595,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>115</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4605,14 +4611,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4622,11 +4628,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4645,7 +4651,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4655,11 +4661,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>137</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4678,7 +4684,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4688,11 +4694,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>136</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4704,7 +4710,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4721,14 +4727,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>255</v>
+        <v>53</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4737,7 +4743,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4754,14 +4760,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>36</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4770,14 +4776,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4787,14 +4793,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4803,14 +4809,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>289</v>
+        <v>50</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4820,14 +4826,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>36</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4836,14 +4842,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>154</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4853,11 +4859,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4869,14 +4875,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4886,11 +4892,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>198</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>45</v>
@@ -4902,14 +4908,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>50</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4919,11 +4925,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4935,14 +4941,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4952,14 +4958,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>277</v>
+        <v>198</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>115</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4968,14 +4974,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4985,14 +4991,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>188</v>
+        <v>298</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5001,14 +5007,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5018,14 +5024,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>35</v>
+        <v>278</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5034,14 +5040,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5051,14 +5057,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5067,14 +5073,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5084,14 +5090,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>287</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5100,14 +5106,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5117,49 +5123,115 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>286</v>
+        <v>114</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>9409.6299999999992</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>307</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
         <v>308</v>
       </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>135</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>288</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>309</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>50</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>135</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>288</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>9491.6299999999992</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
         <v>310</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>311</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>312</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5708,10 +5780,20 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
     <t>AMEBAZOL 1GM 2 F.C. TABS.</t>
   </si>
   <si>
@@ -203,9 +215,6 @@
     <t>CEREBROCETAM 1GM/5ML 6 AMP.</t>
   </si>
   <si>
-    <t>2:3</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -362,10 +371,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>10:2</t>
-  </si>
-  <si>
-    <t>63.3600</t>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>111.3600</t>
+  </si>
+  <si>
+    <t>2:1</t>
   </si>
   <si>
     <t>DOLPHIN 12.5MG 10 SUPP</t>
@@ -719,9 +731,6 @@
     <t>URIPAN X.R. 10 MG 30 TAB.</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
     <t>28.7100</t>
   </si>
   <si>
@@ -941,7 +950,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 9:24 PM</t>
+    <t>Monday, 8 September, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1615,7 +1624,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1625,14 +1634,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1641,14 +1650,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1665,7 +1674,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1698,7 +1707,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1707,14 +1716,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1724,14 +1733,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1764,7 +1773,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1797,7 +1806,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1813,7 +1822,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1823,14 +1832,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1839,14 +1848,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1863,7 +1872,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1872,14 +1881,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1889,14 +1898,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1905,14 +1914,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1922,11 +1931,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1938,14 +1947,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1955,11 +1964,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1971,14 +1980,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1988,14 +1997,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2004,14 +2013,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2021,14 +2030,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2037,14 +2046,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2061,7 +2070,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2077,7 +2086,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2094,7 +2103,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2110,7 +2119,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2124,10 +2133,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2136,14 +2145,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2153,14 +2162,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2176,7 +2185,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2186,14 +2195,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2209,7 +2218,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2226,7 +2235,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2242,7 +2251,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2252,14 +2261,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2268,14 +2277,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2292,7 +2301,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2308,7 +2317,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2325,7 +2334,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2341,7 +2350,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2351,14 +2360,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2367,14 +2376,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2384,14 +2393,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2400,14 +2409,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2417,14 +2426,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2433,14 +2442,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2457,7 +2466,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2473,7 +2482,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2506,7 +2515,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2516,14 +2525,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2532,14 +2541,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2549,14 +2558,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2565,14 +2574,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2582,14 +2591,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2605,7 +2614,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2615,14 +2624,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2638,7 +2647,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2648,14 +2657,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2664,14 +2673,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2681,14 +2690,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2697,14 +2706,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2714,11 +2723,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2730,14 +2739,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2747,11 +2756,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2763,14 +2772,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2780,14 +2789,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2796,14 +2805,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2813,14 +2822,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2829,20 +2838,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2869,21 +2878,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2895,14 +2904,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2912,14 +2921,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2935,7 +2944,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2945,14 +2954,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2961,14 +2970,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2978,14 +2987,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2994,14 +3003,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3015,10 +3024,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3044,14 +3053,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3060,14 +3069,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3077,14 +3086,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3093,14 +3102,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3110,14 +3119,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3126,14 +3135,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3143,11 +3152,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3159,14 +3168,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3199,21 +3208,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3225,31 +3234,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3258,14 +3267,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3275,14 +3284,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3291,14 +3300,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3308,14 +3317,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3324,14 +3333,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3341,14 +3350,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>183</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3364,7 +3373,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3381,7 +3390,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3390,14 +3399,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3407,14 +3416,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3423,14 +3432,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3440,11 +3449,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3456,14 +3465,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3473,14 +3482,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3489,14 +3498,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>197</v>
+        <v>54</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3513,7 +3522,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>200</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3522,14 +3531,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3539,14 +3548,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3555,14 +3564,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3572,14 +3581,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3588,14 +3597,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3605,14 +3614,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>62</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3621,31 +3630,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3654,31 +3663,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3687,31 +3696,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3720,14 +3729,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3737,14 +3746,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3760,7 +3769,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>48</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3770,14 +3779,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3786,14 +3795,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3803,11 +3812,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3819,14 +3828,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3836,14 +3845,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3852,14 +3861,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3869,14 +3878,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3885,14 +3894,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3902,14 +3911,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3918,14 +3927,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3935,14 +3944,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3951,14 +3960,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3968,14 +3977,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3984,14 +3993,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4001,14 +4010,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4017,14 +4026,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4034,11 +4043,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4050,14 +4059,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4067,11 +4076,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4083,14 +4092,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4100,14 +4109,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>39</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4116,14 +4125,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4133,14 +4142,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>241</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4149,14 +4158,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>50</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4166,14 +4175,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q85" s="12">
         <v>244</v>
-      </c>
-      <c t="s" r="Q85" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4189,7 +4198,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4199,11 +4208,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>93</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4215,14 +4224,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4232,14 +4241,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>236</v>
+        <v>96</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4248,31 +4257,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>19</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>239</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4288,24 +4297,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>54</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>73</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4331,14 +4340,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>151</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4347,14 +4356,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>154</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4371,7 +4380,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4387,21 +4396,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>158</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>98</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4413,28 +4422,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4446,31 +4455,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4479,31 +4488,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>99</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4512,28 +4521,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4545,31 +4554,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>50</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>192</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4585,13 +4594,13 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4602,7 +4611,7 @@
         <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4618,13 +4627,13 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4632,7 +4641,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>115</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4644,28 +4653,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4677,28 +4686,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>136</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>137</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4710,28 +4719,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4743,28 +4752,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>57</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>257</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4776,31 +4785,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4809,31 +4818,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>36</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>56</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4842,31 +4851,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4882,24 +4891,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>291</v>
+        <v>158</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>36</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4921,18 +4930,18 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>276</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4941,31 +4950,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4974,31 +4983,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>50</v>
+        <v>242</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5014,21 +5023,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>115</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5040,31 +5049,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>188</v>
+        <v>281</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>302</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5073,31 +5082,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>304</v>
+        <v>115</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>51</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5106,31 +5115,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>154</v>
+        <v>307</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>306</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5139,28 +5148,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>308</v>
+        <v>158</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>288</v>
+        <v>117</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5172,66 +5181,99 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>50</v>
+        <v>311</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>9491.6299999999992</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>310</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>311</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
         <v>312</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>54</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>139</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>291</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>9626.6299999999992</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>313</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>314</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>315</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5790,10 +5832,15 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>34.00</t>
   </si>
   <si>
     <t>34.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -74,6 +86,15 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>AMEBAZOL 1GM 2 F.C. TABS.</t>
   </si>
   <si>
@@ -107,9 +128,6 @@
     <t>12.4800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
@@ -146,6 +164,18 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BETADINE MOUTH WASH &amp; GARGLE 1% 120 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>BETAPRONATE PLUS CREAM 30 GM</t>
   </si>
   <si>
@@ -173,9 +203,6 @@
     <t>CANDALKAN 8MG 14 TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -188,6 +215,18 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CEFOZON 1 GM VIAL</t>
   </si>
   <si>
@@ -239,9 +278,6 @@
     <t>COLOVERIN A 30 TABLETS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>32.6700</t>
   </si>
   <si>
@@ -419,12 +455,6 @@
     <t>EGY TOTAVIT SYRUP 100 ML</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">ENARO  K CAPS</t>
   </si>
   <si>
@@ -542,9 +572,6 @@
     <t>KETOLAC 10MG 20 TAB</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -578,12 +605,6 @@
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
@@ -950,7 +971,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 9:30 PM</t>
+    <t>Monday, 8 September, 2025 9:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1657,7 +1678,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1667,14 +1688,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1683,14 +1704,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1707,7 +1728,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1723,7 +1744,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1733,14 +1754,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1749,14 +1770,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1766,14 +1787,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1782,14 +1803,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1799,14 +1820,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1815,14 +1836,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1832,14 +1853,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1848,14 +1869,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1865,11 +1886,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1881,14 +1902,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1898,14 +1919,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1914,14 +1935,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1931,11 +1952,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1947,14 +1968,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1964,11 +1985,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1980,14 +2001,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1997,14 +2018,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2013,14 +2034,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2030,14 +2051,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2046,14 +2067,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2063,11 +2084,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2079,14 +2100,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2096,14 +2117,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2112,14 +2133,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2129,11 +2150,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2145,7 +2166,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2162,14 +2183,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2178,14 +2199,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2195,14 +2216,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2211,14 +2232,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2228,14 +2249,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2244,14 +2265,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2261,14 +2282,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2277,14 +2298,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2294,14 +2315,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2317,7 +2338,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2327,14 +2348,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2343,14 +2364,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2360,11 +2381,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2376,14 +2397,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2393,14 +2414,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2409,14 +2430,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2426,11 +2447,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2442,14 +2463,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2459,14 +2480,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2475,14 +2496,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2492,11 +2513,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2508,14 +2529,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2525,14 +2546,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2541,14 +2562,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2558,14 +2579,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2574,14 +2595,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2591,14 +2612,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2607,14 +2628,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2624,14 +2645,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2640,14 +2661,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2657,14 +2678,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2673,14 +2694,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2690,14 +2711,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2706,14 +2727,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2723,11 +2744,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2746,7 +2767,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2763,7 +2784,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2779,7 +2800,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2789,14 +2810,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2805,14 +2826,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2822,11 +2843,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2838,14 +2859,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2855,11 +2876,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2871,28 +2892,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2904,14 +2925,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2921,11 +2942,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2937,14 +2958,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2961,7 +2982,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2977,7 +2998,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2987,11 +3008,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3003,7 +3024,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3016,18 +3037,18 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3036,14 +3057,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3053,14 +3074,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3069,14 +3090,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3086,14 +3107,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3102,14 +3123,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3119,14 +3140,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3135,14 +3156,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3152,14 +3173,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3168,14 +3189,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3185,14 +3206,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3201,14 +3222,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3218,14 +3239,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3234,31 +3255,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3267,14 +3288,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3284,14 +3305,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3300,14 +3321,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3317,14 +3338,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3333,14 +3354,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3350,11 +3371,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3366,31 +3387,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3399,14 +3420,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3416,14 +3437,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3432,14 +3453,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3449,14 +3470,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3465,14 +3486,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3482,11 +3503,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3498,14 +3519,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3515,14 +3536,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>76</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3531,14 +3552,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3548,14 +3569,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>70</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>204</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3564,14 +3585,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3581,14 +3602,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3597,14 +3618,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3614,14 +3635,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3630,14 +3651,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3647,14 +3668,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3663,31 +3684,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>32</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3696,31 +3717,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3736,7 +3757,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3746,11 +3767,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3762,14 +3783,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3783,10 +3804,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>54</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3795,31 +3816,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3828,28 +3849,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3861,14 +3882,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3878,14 +3899,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3901,7 +3922,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3911,14 +3932,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3927,14 +3948,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3944,11 +3965,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3967,7 +3988,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3977,14 +3998,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>120</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3993,14 +4014,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4010,14 +4031,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4026,14 +4047,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4043,14 +4064,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4059,14 +4080,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4076,11 +4097,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>149</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4092,14 +4113,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4109,14 +4130,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4125,14 +4146,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4142,14 +4163,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4165,7 +4186,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4175,14 +4196,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>244</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4191,14 +4212,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4208,11 +4229,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4224,14 +4245,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4241,11 +4262,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4257,14 +4278,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4274,14 +4295,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4290,31 +4311,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>54</v>
+        <v>249</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4323,14 +4344,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>52</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4340,14 +4361,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>151</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4356,14 +4377,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4373,14 +4394,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>108</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4389,14 +4410,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4406,14 +4427,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>23</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4422,31 +4443,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>265</v>
+        <v>52</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>101</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>102</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4455,31 +4476,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4488,31 +4509,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>161</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4521,28 +4542,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>168</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>102</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4554,28 +4575,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4587,31 +4608,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>54</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>120</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4620,31 +4641,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>171</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4653,28 +4674,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>113</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4686,28 +4707,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>49</v>
+        <v>280</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>199</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4719,31 +4740,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>140</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>141</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4759,21 +4780,21 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>57</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>58</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4785,28 +4806,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4818,31 +4839,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4851,31 +4872,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4884,28 +4905,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>66</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4917,31 +4938,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>52</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4950,31 +4971,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>297</v>
+        <v>52</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4983,31 +5004,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5016,28 +5037,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5049,31 +5070,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>49</v>
+        <v>301</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5082,31 +5103,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>115</v>
+        <v>304</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5115,31 +5136,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>307</v>
+        <v>249</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>55</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5148,24 +5169,24 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>117</v>
+        <v>308</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
@@ -5188,21 +5209,21 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>311</v>
+        <v>59</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>292</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5214,66 +5235,198 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>9626.6299999999992</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
         <v>313</v>
       </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
         <v>314</v>
       </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>149</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>45</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
         <v>315</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>168</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>149</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>129</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>316</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>317</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>318</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>149</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>298</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>319</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>52</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>149</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>298</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>9806.2900000000009</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>320</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>321</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>322</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5837,10 +5990,30 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -176,6 +176,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>BETAPRONATE PLUS CREAM 30 GM</t>
   </si>
   <si>
@@ -617,12 +626,6 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
@@ -755,6 +758,9 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
     <t>VALGESTRIL 21 F.C. TABS (BIPHASIC)</t>
   </si>
   <si>
@@ -971,7 +977,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 9:35 PM</t>
+    <t>Monday, 8 September, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1975,7 +1981,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2008,7 +2014,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2018,14 +2024,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2034,14 +2040,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2051,14 +2057,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2067,7 +2073,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2084,7 +2090,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -2107,7 +2113,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2117,14 +2123,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2133,14 +2139,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2150,14 +2156,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2166,14 +2172,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2183,14 +2189,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2206,7 +2212,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2223,7 +2229,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2239,7 +2245,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2256,7 +2262,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2272,7 +2278,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2289,7 +2295,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2305,7 +2311,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2319,10 +2325,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2331,14 +2337,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2348,14 +2354,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2364,14 +2370,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2381,14 +2387,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2404,7 +2410,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2421,7 +2427,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2437,7 +2443,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2447,14 +2453,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2463,14 +2469,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2487,7 +2493,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2503,7 +2509,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2520,7 +2526,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2536,7 +2542,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2546,14 +2552,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2562,14 +2568,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2579,14 +2585,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2595,14 +2601,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2612,14 +2618,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2628,14 +2634,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2652,7 +2658,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2668,7 +2674,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2701,7 +2707,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2711,14 +2717,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2727,14 +2733,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2744,14 +2750,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2760,14 +2766,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2777,14 +2783,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2800,7 +2806,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2810,14 +2816,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2826,14 +2832,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2843,14 +2849,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2859,14 +2865,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2876,14 +2882,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2899,7 +2905,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2932,7 +2938,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2942,11 +2948,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2958,14 +2964,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2975,14 +2981,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2998,7 +3004,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3008,14 +3014,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3024,28 +3030,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3057,28 +3063,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3090,14 +3096,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3107,14 +3113,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3123,14 +3129,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3147,7 +3153,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3163,7 +3169,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3180,7 +3186,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3196,7 +3202,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3206,14 +3212,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>166</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3222,14 +3228,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3239,14 +3245,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>169</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3262,7 +3268,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3272,7 +3278,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3295,7 +3301,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3312,7 +3318,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3328,7 +3334,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3361,7 +3367,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3371,11 +3377,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3387,20 +3393,20 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3427,24 +3433,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3453,14 +3459,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3470,11 +3476,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3493,7 +3499,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3510,7 +3516,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3526,7 +3532,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3543,7 +3549,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3552,14 +3558,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3569,14 +3575,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>70</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3585,14 +3591,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3602,14 +3608,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>73</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3625,7 +3631,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3658,7 +3664,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3668,14 +3674,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>56</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3684,14 +3690,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3701,14 +3707,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>211</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3717,14 +3723,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3734,14 +3740,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3750,14 +3756,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3767,11 +3773,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3783,14 +3789,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3800,14 +3806,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3816,31 +3822,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3856,24 +3862,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3889,24 +3895,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3915,14 +3921,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3932,14 +3938,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3948,14 +3954,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>62</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3965,14 +3971,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>46</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3988,7 +3994,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3998,11 +4004,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4021,7 +4027,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4031,14 +4037,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4054,7 +4060,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4064,11 +4070,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4080,14 +4086,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4097,14 +4103,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4113,14 +4119,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4130,14 +4136,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4146,14 +4152,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4163,14 +4169,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4179,14 +4185,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4196,14 +4202,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4212,14 +4218,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4229,11 +4235,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>159</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4252,7 +4258,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4262,11 +4268,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4285,7 +4291,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4295,14 +4301,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4311,14 +4317,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>249</v>
+        <v>72</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4328,14 +4334,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>251</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4344,14 +4350,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4361,11 +4367,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4377,14 +4383,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4394,14 +4400,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4410,14 +4416,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4427,14 +4433,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4443,31 +4449,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>249</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4476,14 +4482,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>72</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4493,14 +4499,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4509,31 +4515,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>52</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>59</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4542,14 +4548,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4559,14 +4565,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>164</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4575,31 +4581,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>113</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>114</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4608,28 +4614,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>171</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>120</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>121</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4641,31 +4647,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4674,28 +4680,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4707,31 +4713,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4740,31 +4746,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>52</v>
+        <v>280</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>116</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4773,28 +4779,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>202</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4806,31 +4812,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>130</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4839,28 +4845,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4872,28 +4878,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4912,21 +4918,21 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>66</v>
+        <v>287</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>67</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4945,21 +4951,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>153</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>267</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4971,7 +4977,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4984,18 +4990,18 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>295</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5004,7 +5010,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5017,18 +5023,18 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5037,31 +5043,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5070,31 +5076,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>301</v>
+        <v>52</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>46</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5103,28 +5109,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>304</v>
+        <v>171</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5136,31 +5142,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>306</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5169,28 +5175,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>52</v>
+        <v>306</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5202,31 +5208,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>59</v>
+        <v>251</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>288</v>
+        <v>210</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>130</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5235,31 +5241,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>199</v>
+        <v>310</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5268,31 +5274,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>314</v>
+        <v>62</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5301,31 +5307,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5334,31 +5340,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>299</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5367,66 +5373,132 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>298</v>
+        <v>132</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>9806.2900000000009</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>319</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
         <v>320</v>
       </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>152</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>300</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
         <v>321</v>
       </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>52</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>152</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>300</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>9875.2900000000009</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
         <v>322</v>
       </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>323</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>324</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6010,10 +6082,20 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -656,6 +656,9 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
     <t>OXITROPIL 1200 MG 60 TAB</t>
   </si>
   <si>
@@ -677,6 +680,15 @@
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
+    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>RAMETAX 1GM I.V./I.M VIAL</t>
   </si>
   <si>
@@ -707,9 +719,6 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -977,7 +986,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 9:36 PM</t>
+    <t>Monday, 8 September, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3796,7 +3805,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3806,14 +3815,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3822,14 +3831,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3839,14 +3848,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3855,31 +3864,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3895,7 +3904,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3905,14 +3914,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3928,24 +3937,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3954,14 +3963,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>62</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3971,14 +3980,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3987,14 +3996,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4004,14 +4013,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>46</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4020,14 +4029,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4037,14 +4046,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4053,14 +4062,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4070,14 +4079,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4086,14 +4095,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4103,14 +4112,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4119,14 +4128,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4136,14 +4145,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4152,14 +4161,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4169,14 +4178,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4185,14 +4194,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4202,14 +4211,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4218,14 +4227,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4235,14 +4244,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4251,14 +4260,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4268,14 +4277,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4284,14 +4293,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4301,11 +4310,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>46</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4317,14 +4326,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4334,14 +4343,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4357,7 +4366,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4367,11 +4376,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4390,7 +4399,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4400,14 +4409,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>253</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4416,14 +4425,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4433,11 +4442,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4449,14 +4458,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4466,14 +4475,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4482,14 +4491,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4499,14 +4508,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4522,24 +4531,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>111</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4548,14 +4557,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>264</v>
+        <v>72</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4565,14 +4574,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4581,31 +4590,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>267</v>
+        <v>52</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>62</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4614,14 +4623,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>171</v>
+        <v>267</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4631,14 +4640,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>164</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4647,31 +4656,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>116</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>117</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4680,28 +4689,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>171</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>123</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>124</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4713,14 +4722,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>277</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4730,14 +4739,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4746,14 +4755,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4763,11 +4772,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4779,14 +4788,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>282</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4796,14 +4805,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>203</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4812,14 +4821,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4829,14 +4838,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>116</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4845,14 +4854,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>52</v>
+        <v>285</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4862,11 +4871,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4878,14 +4887,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4895,14 +4904,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>133</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4911,14 +4920,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4928,11 +4937,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4951,7 +4960,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4961,11 +4970,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>153</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4977,14 +4986,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4994,11 +5003,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>69</v>
+        <v>290</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>70</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5010,14 +5019,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5027,11 +5036,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>153</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>269</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5060,14 +5069,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>268</v>
+        <v>69</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>297</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5076,7 +5085,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5093,14 +5102,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>46</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5116,7 +5125,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5126,14 +5135,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5142,14 +5151,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>303</v>
+        <v>52</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5159,14 +5168,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>46</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5175,14 +5184,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5192,11 +5201,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5208,14 +5217,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5225,11 +5234,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>210</v>
+        <v>307</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>308</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>62</v>
@@ -5241,14 +5250,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>52</v>
+        <v>309</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5258,11 +5267,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5274,14 +5283,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>62</v>
+        <v>254</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5291,14 +5300,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>133</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5307,14 +5316,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5324,14 +5333,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>202</v>
+        <v>313</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
         <v>314</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5347,7 +5356,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>316</v>
+        <v>62</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5357,14 +5366,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5373,14 +5382,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5390,14 +5399,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5406,14 +5415,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5423,14 +5432,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>301</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5439,14 +5448,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5456,49 +5465,115 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>300</v>
+        <v>132</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>9875.2900000000009</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
         <v>322</v>
       </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
         <v>323</v>
       </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>152</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>303</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
         <v>324</v>
       </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>52</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>152</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>303</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>9917.2900000000009</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>325</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>326</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>327</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6092,10 +6167,20 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -986,7 +986,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 9:38 PM</t>
+    <t>Monday, 8 September, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -557,6 +557,12 @@
     <t>79.0000</t>
   </si>
   <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
     <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
   </si>
   <si>
@@ -579,6 +585,9 @@
   </si>
   <si>
     <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>LACTO PLUS 6SACHETS</t>
   </si>
   <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
@@ -3409,7 +3418,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3419,11 +3428,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3435,28 +3444,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3468,31 +3477,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3501,14 +3510,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3518,11 +3527,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3534,7 +3543,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3547,15 +3556,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3567,14 +3576,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3584,14 +3593,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>199</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3600,14 +3609,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3617,14 +3626,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3633,14 +3642,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3650,14 +3659,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3666,14 +3675,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3683,14 +3692,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3699,14 +3708,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3716,14 +3725,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3732,14 +3741,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3749,14 +3758,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>56</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>212</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3765,14 +3774,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3782,14 +3791,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3798,14 +3807,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3815,14 +3824,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3838,7 +3847,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3848,11 +3857,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3864,14 +3873,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3881,14 +3890,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3897,7 +3906,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3910,15 +3919,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3937,24 +3946,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3963,31 +3972,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3996,31 +4005,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4029,14 +4038,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>62</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4046,14 +4055,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4062,14 +4071,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4079,14 +4088,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4095,14 +4104,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4112,14 +4121,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>123</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>124</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4128,14 +4137,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4145,14 +4154,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4161,14 +4170,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4178,14 +4187,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4194,14 +4203,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4211,14 +4220,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4227,14 +4236,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4244,14 +4253,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4260,14 +4269,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4277,14 +4286,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4293,14 +4302,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4310,14 +4319,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4326,14 +4335,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4343,14 +4352,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4359,14 +4368,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4376,11 +4385,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4392,14 +4401,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4409,14 +4418,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4432,7 +4441,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4442,11 +4451,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4465,7 +4474,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>254</v>
+        <v>72</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4475,14 +4484,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>256</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4491,14 +4500,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4508,11 +4517,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4524,14 +4533,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4541,14 +4550,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4557,14 +4566,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4574,14 +4583,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4597,24 +4606,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>111</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>254</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4623,14 +4632,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4640,14 +4649,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4656,31 +4665,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>270</v>
+        <v>52</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>62</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4689,14 +4698,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>171</v>
+        <v>270</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4706,14 +4715,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>164</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4722,31 +4731,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>116</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>117</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4755,28 +4764,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>279</v>
+        <v>171</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>123</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>124</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4788,14 +4797,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4805,14 +4814,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4821,14 +4830,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4838,11 +4847,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4854,14 +4863,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4871,14 +4880,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4887,14 +4896,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>52</v>
+        <v>286</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4904,14 +4913,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>116</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4920,14 +4929,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>52</v>
+        <v>288</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4937,11 +4946,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4953,14 +4962,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4970,14 +4979,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4986,14 +4995,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5003,11 +5012,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5026,7 +5035,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5036,11 +5045,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>153</v>
+        <v>296</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5052,14 +5061,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5069,11 +5078,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>70</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5085,14 +5094,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5102,11 +5111,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>298</v>
+        <v>153</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>272</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5135,14 +5144,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>271</v>
+        <v>69</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5151,7 +5160,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5168,14 +5177,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5191,7 +5200,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5201,14 +5210,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5217,14 +5226,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>306</v>
+        <v>52</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5234,14 +5243,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
         <v>46</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5250,14 +5259,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>309</v>
+        <v>171</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5267,11 +5276,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5283,14 +5292,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>254</v>
+        <v>309</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5300,11 +5309,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>311</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>62</v>
@@ -5316,14 +5325,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>52</v>
+        <v>312</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5333,11 +5342,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5349,14 +5358,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5366,14 +5375,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>293</v>
+        <v>213</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>133</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5382,14 +5391,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5399,14 +5408,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>202</v>
+        <v>316</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
         <v>317</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5422,7 +5431,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5432,14 +5441,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5448,14 +5457,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5465,14 +5474,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5481,14 +5490,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5498,14 +5507,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>304</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5514,14 +5523,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5531,49 +5540,115 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>303</v>
+        <v>132</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>9917.2900000000009</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
         <v>325</v>
       </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
         <v>326</v>
       </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>152</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>306</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
         <v>327</v>
       </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>52</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>152</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>306</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>10072.290000000001</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>328</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>329</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>330</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6177,10 +6252,20 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -995,7 +995,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 9:55 PM</t>
+    <t>Monday, 8 September, 2025 10:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -338,6 +338,15 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -413,6 +422,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DIXVIT 10.000 I.U. 30 TABS.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -563,6 +581,9 @@
     <t>90.00</t>
   </si>
   <si>
+    <t>GAPTIN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
     <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
   </si>
   <si>
@@ -623,6 +644,9 @@
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
@@ -653,9 +677,6 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>56.0000</t>
-  </si>
-  <si>
     <t>1:4</t>
   </si>
   <si>
@@ -716,6 +737,9 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>ROYAL ZAD</t>
+  </si>
+  <si>
     <t>SALBOVENT 2MG 30 TAB.</t>
   </si>
   <si>
@@ -845,7 +869,7 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>96.0000</t>
+    <t>192.0000</t>
   </si>
   <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
@@ -926,6 +950,9 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>سويت افوفا</t>
   </si>
   <si>
@@ -995,7 +1022,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 10:02 PM</t>
+    <t>Monday, 8 September, 2025 10:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2593,7 +2620,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2603,14 +2630,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2619,14 +2646,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2636,14 +2663,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2652,14 +2679,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2669,14 +2696,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2685,14 +2712,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2709,7 +2736,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2725,7 +2752,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2758,7 +2785,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2768,14 +2795,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2784,14 +2811,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2801,14 +2828,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2817,14 +2844,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2834,14 +2861,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2857,7 +2884,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2867,14 +2894,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>137</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2883,14 +2910,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2900,14 +2927,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2923,7 +2950,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2933,14 +2960,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2949,14 +2976,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2966,14 +2993,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2989,7 +3016,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2999,11 +3026,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3015,14 +3042,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3032,14 +3059,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3048,14 +3075,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3065,11 +3092,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3081,31 +3108,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3114,14 +3141,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3131,11 +3158,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3147,31 +3174,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3180,14 +3207,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3197,11 +3224,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3213,14 +3240,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3253,7 +3280,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3263,14 +3290,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3279,14 +3306,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3296,11 +3323,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3312,14 +3339,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3333,10 +3360,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>175</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3352,7 +3379,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3362,14 +3389,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3385,7 +3412,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3402,7 +3429,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3418,7 +3445,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3432,7 +3459,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3444,14 +3471,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3484,13 +3511,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3498,7 +3525,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3510,14 +3537,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3527,14 +3554,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3543,28 +3570,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>54</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3576,31 +3603,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3609,14 +3636,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3626,14 +3653,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3649,24 +3676,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3675,14 +3702,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3692,11 +3719,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3708,14 +3735,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3725,11 +3752,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3741,14 +3768,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3758,14 +3785,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3774,14 +3801,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3791,14 +3818,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>73</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3814,7 +3841,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3824,14 +3851,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>215</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3840,14 +3867,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3857,14 +3884,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3873,14 +3900,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3890,11 +3917,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3906,14 +3933,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3923,14 +3950,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3939,14 +3966,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3956,14 +3983,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>113</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3972,28 +3999,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4012,21 +4039,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4045,7 +4072,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4062,7 +4089,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4078,7 +4105,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4088,14 +4115,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4111,24 +4138,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>72</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4137,28 +4164,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4170,14 +4197,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4187,11 +4214,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4203,14 +4230,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4220,14 +4247,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4243,7 +4270,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4253,14 +4280,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4269,28 +4296,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>138</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4302,14 +4329,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4319,14 +4346,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4335,14 +4362,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4352,14 +4379,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4368,14 +4395,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4385,14 +4412,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4401,14 +4428,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4418,14 +4445,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4434,14 +4461,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4451,11 +4478,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>46</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4467,14 +4494,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4484,14 +4511,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4500,7 +4527,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4517,14 +4544,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4540,7 +4567,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4550,14 +4577,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>259</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4566,7 +4593,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4583,11 +4610,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4599,7 +4626,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4616,11 +4643,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4632,7 +4659,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4653,7 +4680,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4665,31 +4692,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>257</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4698,14 +4725,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4715,14 +4742,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>72</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4731,14 +4758,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>273</v>
+        <v>52</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4748,14 +4775,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4764,14 +4791,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4781,11 +4808,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>277</v>
+        <v>114</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4797,31 +4824,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>280</v>
+        <v>72</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4830,31 +4857,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>282</v>
+        <v>52</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>123</v>
+        <v>275</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>124</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4863,31 +4890,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4896,31 +4923,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>116</v>
+        <v>282</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>117</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4929,31 +4956,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4962,31 +4989,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>52</v>
+        <v>288</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>119</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4995,28 +5022,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>52</v>
+        <v>290</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>293</v>
+        <v>126</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>294</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5028,31 +5055,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>296</v>
+        <v>180</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>133</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5061,28 +5088,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>62</v>
+        <v>294</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>293</v>
+        <v>119</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>294</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5094,28 +5121,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>296</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5127,7 +5154,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5140,18 +5167,18 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>69</v>
+        <v>298</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>70</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5173,7 +5200,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
@@ -5181,7 +5208,7 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5193,31 +5220,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>303</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5226,31 +5253,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>46</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5259,28 +5286,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>306</v>
+        <v>159</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>307</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5292,31 +5319,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>309</v>
+        <v>52</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>310</v>
+        <v>69</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5325,28 +5352,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>312</v>
+        <v>52</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5358,31 +5385,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>257</v>
+        <v>52</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>62</v>
+        <v>177</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5391,7 +5418,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5404,18 +5431,18 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5424,28 +5451,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>133</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5457,28 +5484,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>130</v>
+        <v>318</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>320</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>62</v>
@@ -5490,31 +5517,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>67</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5523,31 +5550,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>132</v>
+        <v>221</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5556,28 +5583,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5596,59 +5623,224 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>307</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>10072.290000000001</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
         <v>328</v>
       </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>133</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>158</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>213</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
         <v>329</v>
       </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c t="s" r="Q128" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>330</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>331</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>158</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>45</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>332</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>177</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>158</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>135</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>333</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>334</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>335</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>158</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>315</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>316</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>336</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>52</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>158</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>315</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>316</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>10573.75</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>337</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>338</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>339</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6262,10 +6454,35 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -152,6 +152,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -407,6 +419,12 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -500,15 +518,9 @@
     <t>ERASTAPEX TRIO 5/40/12.5MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>144.00</t>
   </si>
   <si>
-    <t>47.5200</t>
-  </si>
-  <si>
     <t>EVASTINE 10MG 20 F.C.TAB.</t>
   </si>
   <si>
@@ -599,9 +611,6 @@
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
-    <t>57.00</t>
-  </si>
-  <si>
     <t>57.0000</t>
   </si>
   <si>
@@ -944,9 +953,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -1022,7 +1028,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 10:04 PM</t>
+    <t>Monday, 8 September, 2025 10:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2010,7 +2016,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2026,7 +2032,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2036,11 +2042,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -2052,14 +2058,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2069,11 +2075,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -2085,14 +2091,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2109,7 +2115,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2118,14 +2124,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2135,14 +2141,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2151,14 +2157,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2168,11 +2174,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2184,14 +2190,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2208,7 +2214,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2234,14 +2240,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2250,14 +2256,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2267,14 +2273,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2283,14 +2289,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2300,14 +2306,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2316,14 +2322,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2333,14 +2339,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2349,14 +2355,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2366,14 +2372,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2382,14 +2388,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2399,14 +2405,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2415,14 +2421,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2432,14 +2438,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2448,14 +2454,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2465,14 +2471,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2481,14 +2487,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2498,14 +2504,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2514,14 +2520,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2538,7 +2544,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2554,7 +2560,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2564,14 +2570,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2580,14 +2586,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2597,14 +2603,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2613,14 +2619,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2630,11 +2636,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2646,14 +2652,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2670,7 +2676,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2679,14 +2685,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2696,14 +2702,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>120</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2736,7 +2742,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2752,7 +2758,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2762,14 +2768,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2778,14 +2784,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2795,11 +2801,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2811,14 +2817,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2828,14 +2834,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2844,14 +2850,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2861,14 +2867,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2877,14 +2883,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2894,14 +2900,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2910,14 +2916,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2927,14 +2933,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2943,14 +2949,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2960,14 +2966,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>143</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2976,14 +2982,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2993,14 +2999,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3009,14 +3015,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3026,14 +3032,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3042,14 +3048,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3059,11 +3065,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3075,14 +3081,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3092,11 +3098,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3108,14 +3114,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3125,14 +3131,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3141,14 +3147,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3158,14 +3164,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3174,28 +3180,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3207,28 +3213,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3240,14 +3246,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3257,14 +3263,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3273,14 +3279,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3290,14 +3296,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3306,14 +3312,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3323,14 +3329,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3339,14 +3345,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3360,10 +3366,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>175</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3389,14 +3395,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3405,14 +3411,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3422,11 +3428,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3438,14 +3444,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3455,14 +3461,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3471,14 +3477,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3488,11 +3494,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3504,14 +3510,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3521,11 +3527,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3537,14 +3543,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3554,14 +3560,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3570,14 +3576,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3587,14 +3593,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>67</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3610,21 +3616,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3636,31 +3642,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3669,31 +3675,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3702,31 +3708,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3742,7 +3748,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3759,7 +3765,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3775,7 +3781,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3792,7 +3798,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3801,14 +3807,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3818,14 +3824,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3834,14 +3840,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3851,14 +3857,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3867,14 +3873,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3884,11 +3890,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3907,7 +3913,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3917,11 +3923,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>56</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>57</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3933,14 +3939,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3950,14 +3956,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>60</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3973,7 +3979,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3983,14 +3989,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>222</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3999,14 +4005,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4016,14 +4022,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4032,14 +4038,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4049,14 +4055,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4065,14 +4071,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4082,14 +4088,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4105,7 +4111,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4119,10 +4125,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4131,31 +4137,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4164,31 +4170,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4197,28 +4203,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>49</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4237,7 +4243,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4247,14 +4253,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4263,14 +4269,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4280,14 +4286,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>133</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4296,31 +4302,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>138</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>139</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4329,28 +4335,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4362,14 +4368,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4379,11 +4385,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4395,14 +4401,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4412,14 +4418,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4428,14 +4434,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4445,11 +4451,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4461,14 +4467,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4478,14 +4484,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4501,7 +4507,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4518,7 +4524,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4534,7 +4540,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4551,7 +4557,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4567,7 +4573,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4584,7 +4590,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4600,7 +4606,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4610,11 +4616,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>167</v>
+        <v>260</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>168</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4626,14 +4632,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4643,11 +4649,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4659,14 +4665,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4676,14 +4682,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>262</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4692,14 +4698,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4709,14 +4715,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4725,14 +4731,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>265</v>
+        <v>66</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4742,14 +4748,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>267</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4758,14 +4764,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>52</v>
+        <v>268</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4775,14 +4781,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q101" s="12">
         <v>270</v>
-      </c>
-      <c t="s" r="Q101" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4798,7 +4804,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4808,11 +4814,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>114</v>
+        <v>272</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4824,14 +4830,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4841,14 +4847,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4857,31 +4863,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>275</v>
+        <v>23</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>265</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4897,24 +4903,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>278</v>
+        <v>56</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>170</v>
+        <v>278</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>72</v>
+        <v>268</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4940,14 +4946,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>282</v>
+        <v>174</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4956,14 +4962,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4980,7 +4986,7 @@
         <v>286</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4996,24 +5002,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>119</v>
+        <v>288</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>120</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5022,28 +5028,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5055,31 +5061,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>293</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>292</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5088,31 +5094,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>294</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>120</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5121,28 +5127,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5154,31 +5160,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>52</v>
+        <v>299</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>298</v>
+        <v>216</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>299</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5194,13 +5200,13 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
@@ -5211,7 +5217,7 @@
         <v>302</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5227,13 +5233,13 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
@@ -5241,7 +5247,7 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>136</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5253,28 +5259,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>302</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5286,28 +5292,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>159</v>
+        <v>304</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>160</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5319,28 +5325,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5352,28 +5358,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>309</v>
+        <v>73</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5385,31 +5391,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>177</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5418,31 +5424,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>313</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>118</v>
+        <v>270</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5458,24 +5464,24 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>177</v>
+        <v>56</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5484,31 +5490,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>318</v>
+        <v>181</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>46</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5517,31 +5523,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>302</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5557,24 +5563,24 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>221</v>
+        <v>304</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5590,24 +5596,24 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>52</v>
+        <v>268</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>325</v>
+        <v>224</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5616,28 +5622,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>136</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5649,31 +5655,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>329</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5689,24 +5695,24 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>331</v>
+        <v>139</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>67</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5722,24 +5728,24 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>177</v>
+        <v>333</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>333</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5755,21 +5761,21 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>335</v>
+        <v>181</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>315</v>
+        <v>141</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5788,59 +5794,92 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>52</v>
+        <v>337</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>10573.75</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>337</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
         <v>338</v>
       </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>56</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>164</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>317</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>318</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>10598.75</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
         <v>339</v>
       </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>340</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>341</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6479,10 +6518,15 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-08_00-00.xlsx
+++ b/DaySale_2025-09-08_00-00.xlsx
@@ -348,6 +348,15 @@
   </si>
   <si>
     <t>100.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
   </si>
   <si>
     <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
@@ -2659,7 +2668,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2676,7 +2685,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2692,7 +2701,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2702,14 +2711,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2718,14 +2727,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2735,14 +2744,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2751,14 +2760,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2768,14 +2777,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2784,14 +2793,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2808,7 +2817,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2824,7 +2833,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2857,7 +2866,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2867,14 +2876,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2900,14 +2909,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2916,14 +2925,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2933,14 +2942,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2956,7 +2965,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2973,7 +2982,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2989,7 +2998,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2999,14 +3008,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3015,14 +3024,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I48" s=